--- a/assets/resources/tool_database.xlsx
+++ b/assets/resources/tool_database.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10306"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6ff24e4f1aa7cd16/Documents/Deleum/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="189" documentId="8_{3731B2D3-2851-4964-AE06-C382F04C3BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E6D41E9-793D-4127-A819-C876FE257593}"/>
+  <xr:revisionPtr revIDLastSave="205" documentId="8_{3731B2D3-2851-4964-AE06-C382F04C3BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83F2D7F2-C2CB-234B-B284-EA3FFE728441}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="123">
   <si>
     <t>Category</t>
   </si>
@@ -143,18 +143,9 @@
     <t>PPU</t>
   </si>
   <si>
-    <t>PRC</t>
-  </si>
-  <si>
-    <t>CFJM</t>
-  </si>
-  <si>
     <t>CFSM</t>
   </si>
   <si>
-    <t>Bull Nose</t>
-  </si>
-  <si>
     <t>X-Line</t>
   </si>
   <si>
@@ -335,9 +326,6 @@
     <t>PGR032</t>
   </si>
   <si>
-    <t>MIT 24</t>
-  </si>
-  <si>
     <t>UMT007</t>
   </si>
   <si>
@@ -368,13 +356,37 @@
     <t>To CFJM</t>
   </si>
   <si>
-    <t>ASB</t>
-  </si>
-  <si>
     <t>20" Mechanical Spang Jar</t>
   </si>
   <si>
     <t>30" Mechanical Spang Jar</t>
+  </si>
+  <si>
+    <t>PGR020</t>
+  </si>
+  <si>
+    <t>QPC003</t>
+  </si>
+  <si>
+    <t>PRC017</t>
+  </si>
+  <si>
+    <t>PRC001</t>
+  </si>
+  <si>
+    <t>CFJM08</t>
+  </si>
+  <si>
+    <t>MIT 24F</t>
+  </si>
+  <si>
+    <t>MIT 40F</t>
+  </si>
+  <si>
+    <t>BUL006</t>
+  </si>
+  <si>
+    <t>ASB004</t>
   </si>
 </sst>
 </file>
@@ -435,7 +447,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -447,6 +459,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,13 +539,9 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4BAF00AD-584C-4C36-B295-B0565728D80D}" name="Table1" displayName="Table1" ref="A1:G123" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5">
-  <autoFilter ref="A1:G123" xr:uid="{4BAF00AD-584C-4C36-B295-B0565728D80D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4BAF00AD-584C-4C36-B295-B0565728D80D}" name="Table1" displayName="Table1" ref="A1:G127" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5">
+  <autoFilter ref="A1:G127" xr:uid="{4BAF00AD-584C-4C36-B295-B0565728D80D}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{684E84AF-B38C-4176-AA07-F608285CA487}" name="Category"/>
     <tableColumn id="2" xr3:uid="{600A890B-56A9-4AC9-904F-2117D4282182}" name="Tool Name"/>
@@ -835,24 +844,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G123"/>
+  <dimension ref="A1:G127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:B19"/>
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5859375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.37109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.67578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.1171875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.1171875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.390625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6015625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -860,22 +869,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -883,13 +892,13 @@
         <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D2" s="3">
         <v>1.875</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F2" s="4">
         <v>0.5</v>
@@ -899,7 +908,7 @@
         <v>4.6875</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -907,13 +916,13 @@
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D3" s="3">
         <v>1.5</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F3" s="4">
         <v>0.5</v>
@@ -923,7 +932,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -931,13 +940,13 @@
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D4" s="3">
         <v>1.25</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F4" s="4">
         <v>0.5</v>
@@ -947,7 +956,7 @@
         <v>2.0833333333333335</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -955,13 +964,13 @@
         <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D5" s="3">
         <v>1.875</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F5" s="4">
         <v>0.5</v>
@@ -971,7 +980,7 @@
         <v>4.6875</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -979,13 +988,13 @@
         <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D6" s="3">
         <v>1.5</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F6" s="4">
         <v>0.5</v>
@@ -995,7 +1004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1003,13 +1012,13 @@
         <v>12</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D7" s="3">
         <v>1.25</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F7" s="4">
         <v>0.5</v>
@@ -1019,7 +1028,7 @@
         <v>2.0833333333333335</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1027,13 +1036,13 @@
         <v>13</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D8" s="3">
         <v>1.875</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F8" s="4">
         <v>0.5</v>
@@ -1043,7 +1052,7 @@
         <v>4.6875</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1051,13 +1060,13 @@
         <v>13</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D9" s="3">
         <v>1.5</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F9" s="4">
         <v>0.5</v>
@@ -1067,7 +1076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1075,13 +1084,13 @@
         <v>13</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D10" s="3">
         <v>1.25</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F10" s="4">
         <v>0.5</v>
@@ -1091,7 +1100,7 @@
         <v>2.0833333333333335</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -1099,13 +1108,13 @@
         <v>14</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D11" s="3">
         <v>1.875</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F11" s="4">
         <v>3</v>
@@ -1115,7 +1124,7 @@
         <v>28.125</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1123,13 +1132,13 @@
         <v>14</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D12" s="3">
         <v>1.5</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F12" s="4">
         <v>3</v>
@@ -1139,7 +1148,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1147,13 +1156,13 @@
         <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D13" s="3">
         <v>1.25</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F13" s="4">
         <v>3</v>
@@ -1163,21 +1172,21 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D14" s="3">
         <v>1.875</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F14" s="4">
         <v>3</v>
@@ -1187,21 +1196,21 @@
         <v>28.125</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D15" s="3">
         <v>1.5</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F15" s="4">
         <v>3</v>
@@ -1211,21 +1220,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D16" s="3">
         <v>1.25</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F16" s="4">
         <v>3</v>
@@ -1235,21 +1244,21 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D17" s="3">
         <v>1.875</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F17" s="4">
         <v>4</v>
@@ -1259,21 +1268,21 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D18" s="3">
         <v>1.5</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F18" s="4">
         <v>4</v>
@@ -1283,21 +1292,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D19" s="3">
         <v>1.25</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F19" s="4">
         <v>4</v>
@@ -1307,21 +1316,21 @@
         <v>16.666666666666668</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D20" s="3">
         <v>1.875</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20">
@@ -1329,21 +1338,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D21" s="3">
         <v>1.5</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21">
@@ -1351,21 +1360,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D22" s="3">
         <v>1.25</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22">
@@ -1373,21 +1382,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D23" s="3">
         <v>1.875</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23">
@@ -1395,21 +1404,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D24" s="3">
         <v>1.5</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24">
@@ -1417,21 +1426,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D25" s="3">
         <v>1.25</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25">
@@ -1439,7 +1448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -1447,13 +1456,13 @@
         <v>15</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D26" s="3">
         <v>1.875</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26">
@@ -1461,7 +1470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -1469,13 +1478,13 @@
         <v>15</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D27" s="3">
         <v>1.5</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27">
@@ -1483,7 +1492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -1491,13 +1500,13 @@
         <v>15</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D28" s="3">
         <v>1.25</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28">
@@ -1505,7 +1514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -1518,7 +1527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -1531,7 +1540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -1544,7 +1553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -1557,7 +1566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -1570,7 +1579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -1583,7 +1592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -1591,13 +1600,13 @@
         <v>22</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D35" s="3">
         <v>2.1880000000000002</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35">
@@ -1605,7 +1614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -1613,13 +1622,13 @@
         <v>22</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D36" s="3">
         <v>1.776</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36">
@@ -1627,7 +1636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -1635,13 +1644,13 @@
         <v>22</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D37" s="3">
         <v>1.4370000000000001</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37">
@@ -1649,7 +1658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -1657,13 +1666,13 @@
         <v>23</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D38" s="3">
         <v>2.1800000000000002</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38">
@@ -1671,7 +1680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -1679,13 +1688,13 @@
         <v>23</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D39" s="3">
         <v>1.77</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39">
@@ -1693,7 +1702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -1701,13 +1710,13 @@
         <v>23</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D40" s="3">
         <v>1.43</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40">
@@ -1715,7 +1724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -1723,13 +1732,13 @@
         <v>24</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D41" s="3">
         <v>2.1800000000000002</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41">
@@ -1737,7 +1746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -1745,13 +1754,13 @@
         <v>24</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D42" s="3">
         <v>1.77</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42">
@@ -1759,7 +1768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -1767,13 +1776,13 @@
         <v>24</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D43" s="3">
         <v>1.43</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43">
@@ -1781,7 +1790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -1789,13 +1798,13 @@
         <v>25</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D44" s="3">
         <v>2.1800000000000002</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44">
@@ -1803,7 +1812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -1811,13 +1820,13 @@
         <v>25</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D45" s="3">
         <v>1.77</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45">
@@ -1825,7 +1834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -1833,13 +1842,13 @@
         <v>25</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D46" s="3">
         <v>1.43</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46">
@@ -1847,7 +1856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -1855,7 +1864,7 @@
         <v>26</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47">
@@ -1863,7 +1872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -1871,7 +1880,7 @@
         <v>26</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48">
@@ -1879,7 +1888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -1887,7 +1896,7 @@
         <v>26</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49">
@@ -1895,7 +1904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -1903,7 +1912,7 @@
         <v>27</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50">
@@ -1911,7 +1920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -1919,7 +1928,7 @@
         <v>27</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51">
@@ -1927,7 +1936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -1935,7 +1944,7 @@
         <v>27</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F52" s="4"/>
       <c r="G52">
@@ -1943,7 +1952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -1951,7 +1960,7 @@
         <v>28</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53">
@@ -1959,7 +1968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -1967,7 +1976,7 @@
         <v>28</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F54" s="4"/>
       <c r="G54">
@@ -1975,7 +1984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -1983,7 +1992,7 @@
         <v>28</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55">
@@ -1991,7 +2000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -1999,7 +2008,7 @@
         <v>29</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56">
@@ -2007,7 +2016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -2015,7 +2024,7 @@
         <v>29</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57">
@@ -2023,7 +2032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -2031,7 +2040,7 @@
         <v>29</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58">
@@ -2039,7 +2048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>4</v>
       </c>
@@ -2047,7 +2056,7 @@
         <v>30</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D59" s="3">
         <v>2.72</v>
@@ -2058,7 +2067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>4</v>
       </c>
@@ -2066,7 +2075,7 @@
         <v>30</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D60" s="3">
         <v>2.25</v>
@@ -2077,7 +2086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>4</v>
       </c>
@@ -2085,7 +2094,7 @@
         <v>30</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D61" s="3">
         <v>1.81</v>
@@ -2096,7 +2105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>5</v>
       </c>
@@ -2104,13 +2113,13 @@
         <v>31</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D62" s="3">
         <v>2.718</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F62" s="4"/>
       <c r="G62">
@@ -2118,7 +2127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -2126,13 +2135,13 @@
         <v>31</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D63" s="3">
         <v>2.718</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F63" s="4"/>
       <c r="G63">
@@ -2140,7 +2149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -2148,13 +2157,13 @@
         <v>31</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D64" s="3">
         <v>2.1560000000000001</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F64" s="4"/>
       <c r="G64">
@@ -2162,7 +2171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>5</v>
       </c>
@@ -2170,13 +2179,13 @@
         <v>31</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D65" s="3">
         <v>1.84</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F65" s="4"/>
       <c r="G65">
@@ -2184,7 +2193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>5</v>
       </c>
@@ -2192,13 +2201,13 @@
         <v>32</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D66" s="3">
         <v>2.78</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F66" s="4"/>
       <c r="G66">
@@ -2206,7 +2215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -2214,13 +2223,13 @@
         <v>32</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D67" s="3">
         <v>2.72</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F67" s="4"/>
       <c r="G67">
@@ -2228,7 +2237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -2236,13 +2245,13 @@
         <v>32</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D68" s="3">
         <v>2.2799999999999998</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F68" s="4"/>
       <c r="G68">
@@ -2250,7 +2259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>5</v>
       </c>
@@ -2258,13 +2267,13 @@
         <v>32</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D69" s="3">
         <v>1.843</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F69" s="4"/>
       <c r="G69">
@@ -2272,7 +2281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>6</v>
       </c>
@@ -2280,14 +2289,14 @@
         <v>33</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D70" s="3">
         <f>1+11/16</f>
         <v>1.6875</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F70" s="4">
         <v>0.97499999999999998</v>
@@ -2296,7 +2305,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -2304,14 +2313,14 @@
         <v>34</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D71" s="3">
-        <f t="shared" ref="D71:D88" si="0">1+11/16</f>
+        <f t="shared" ref="D71:D92" si="0">1+11/16</f>
         <v>1.6875</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F71" s="4">
         <v>1.8166666666666667</v>
@@ -2320,7 +2329,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>6</v>
       </c>
@@ -2328,14 +2337,14 @@
         <v>35</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D72" s="3">
         <f t="shared" si="0"/>
         <v>1.6875</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F72" s="4">
         <v>3.9916666666666667</v>
@@ -2344,22 +2353,22 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D73" s="3">
         <f t="shared" si="0"/>
         <v>1.6875</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F73" s="4">
         <v>1.4708333333333332</v>
@@ -2368,22 +2377,22 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>7</v>
       </c>
       <c r="B74" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D74" s="3">
         <f t="shared" si="0"/>
         <v>1.6875</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F74" s="4">
         <v>1.925</v>
@@ -2392,346 +2401,322 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>7</v>
       </c>
       <c r="B75" t="s">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D75" s="3">
-        <f t="shared" si="0"/>
-        <v>1.6875</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F75" s="4"/>
-      <c r="G75">
-        <f>Table1[[#This Row],[OD (Inches)]]^2*8/3*Table1[[#This Row],[Length (ft)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G75" s="5">
+        <f>Table1[[#This Row],[OD (Inches)]]^2*8/3*Table1[[#This Row],[Length (ft)]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>7</v>
       </c>
       <c r="B76" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D76" s="3">
         <f t="shared" si="0"/>
         <v>1.6875</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F76" s="4">
-        <v>5.3833333333333329</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="F76" s="4"/>
       <c r="G76">
-        <v>20.7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+        <f>Table1[[#This Row],[OD (Inches)]]^2*8/3*Table1[[#This Row],[Length (ft)]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>7</v>
       </c>
       <c r="B77" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D77" s="3">
-        <f t="shared" si="0"/>
-        <v>1.6875</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F77" s="4">
-        <v>1.0416666666666667</v>
-      </c>
-      <c r="G77">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+      <c r="F77" s="4"/>
+      <c r="G77" s="5">
+        <f>Table1[[#This Row],[OD (Inches)]]^2*8/3*Table1[[#This Row],[Length (ft)]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>7</v>
       </c>
       <c r="B78" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D78" s="3">
         <f t="shared" si="0"/>
         <v>1.6875</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F78" s="4">
-        <v>1.5841666666666667</v>
+        <v>5.3833333333333329</v>
       </c>
       <c r="G78">
-        <v>8.8000000000000007</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>7</v>
       </c>
       <c r="B79" t="s">
-        <v>103</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D79" s="3">
-        <f t="shared" si="0"/>
-        <v>1.6875</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F79" s="4">
-        <v>0.56666666666666665</v>
-      </c>
-      <c r="G79">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="F79" s="4"/>
+      <c r="G79" s="5">
+        <f>Table1[[#This Row],[OD (Inches)]]^2*8/3*Table1[[#This Row],[Length (ft)]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>7</v>
       </c>
       <c r="B80" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D80" s="3">
         <f t="shared" si="0"/>
         <v>1.6875</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F80" s="4">
-        <v>1.4416666666666667</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="G80">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>7</v>
       </c>
       <c r="B81" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="D81" s="3">
-        <f>2+1/8</f>
-        <v>2.125</v>
+        <f t="shared" si="0"/>
+        <v>1.6875</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F81" s="4">
-        <v>1.4416666666666667</v>
+        <v>1.5841666666666667</v>
       </c>
       <c r="G81">
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>7</v>
       </c>
       <c r="B82" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D82" s="3">
-        <f t="shared" si="0"/>
-        <v>1.6875</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F82" s="4">
-        <v>1.9166666666666667</v>
-      </c>
-      <c r="G82">
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+      <c r="F82" s="4"/>
+      <c r="G82" s="5">
+        <f>Table1[[#This Row],[OD (Inches)]]^2*8/3*Table1[[#This Row],[Length (ft)]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>7</v>
       </c>
       <c r="B83" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D83" s="3">
         <f t="shared" si="0"/>
         <v>1.6875</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="F83" s="4">
-        <v>1.5416666666666667</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="G83">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>7</v>
       </c>
       <c r="B84" t="s">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D84" s="3">
         <f t="shared" si="0"/>
         <v>1.6875</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="F84" s="4">
-        <v>0.75</v>
+        <v>1.4416666666666667</v>
       </c>
       <c r="G84">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>7</v>
       </c>
       <c r="B85" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D85" s="3">
-        <f t="shared" si="0"/>
-        <v>1.6875</v>
+        <f>2+1/8</f>
+        <v>2.125</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F85" s="4"/>
+        <v>93</v>
+      </c>
+      <c r="F85" s="4">
+        <v>1.4416666666666667</v>
+      </c>
       <c r="G85">
-        <f>Table1[[#This Row],[OD (Inches)]]^2*8/3*Table1[[#This Row],[Length (ft)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>7</v>
       </c>
       <c r="B86" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D86" s="3">
         <f t="shared" si="0"/>
         <v>1.6875</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="F86" s="4">
-        <v>2.91</v>
+        <v>1.9166666666666667</v>
       </c>
       <c r="G86">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>7</v>
       </c>
       <c r="B87" t="s">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D87" s="3">
         <f t="shared" si="0"/>
         <v>1.6875</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="F87" s="4">
-        <v>0.1</v>
+        <v>1.5416666666666667</v>
       </c>
       <c r="G87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>7</v>
       </c>
       <c r="B88" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D88" s="3">
         <f t="shared" si="0"/>
         <v>1.6875</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F88" s="4">
-        <v>0.1</v>
+        <v>0.75</v>
       </c>
       <c r="G88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B89" t="s">
-        <v>40</v>
+        <v>36</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D89" s="3">
+        <f t="shared" si="0"/>
+        <v>1.6875</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="F89" s="4"/>
       <c r="G89">
@@ -2739,51 +2724,84 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B90" t="s">
-        <v>41</v>
-      </c>
-      <c r="F90" s="4"/>
+        <v>105</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D90" s="3">
+        <f t="shared" si="0"/>
+        <v>1.6875</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F90" s="4">
+        <v>2.91</v>
+      </c>
       <c r="G90">
-        <f>Table1[[#This Row],[OD (Inches)]]^2*8/3*Table1[[#This Row],[Length (ft)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B91" t="s">
-        <v>42</v>
-      </c>
-      <c r="F91" s="4"/>
+        <v>116</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D91" s="3">
+        <f t="shared" si="0"/>
+        <v>1.6875</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F91" s="4">
+        <v>0.1</v>
+      </c>
       <c r="G91">
-        <f>Table1[[#This Row],[OD (Inches)]]^2*8/3*Table1[[#This Row],[Length (ft)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B92" t="s">
-        <v>43</v>
-      </c>
-      <c r="F92" s="4"/>
+        <v>117</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D92" s="3">
+        <f t="shared" si="0"/>
+        <v>1.6875</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F92" s="4">
+        <v>0.1</v>
+      </c>
       <c r="G92">
-        <f>Table1[[#This Row],[OD (Inches)]]^2*8/3*Table1[[#This Row],[Length (ft)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F93" s="4"/>
       <c r="G93">
@@ -2791,12 +2809,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>8</v>
       </c>
       <c r="B94" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F94" s="4"/>
       <c r="G94">
@@ -2804,12 +2822,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>8</v>
       </c>
       <c r="B95" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F95" s="4"/>
       <c r="G95">
@@ -2817,12 +2835,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B96" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F96" s="4"/>
       <c r="G96">
@@ -2830,12 +2848,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B97" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="F97" s="4"/>
       <c r="G97">
@@ -2843,15 +2861,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B98" t="s">
-        <v>73</v>
-      </c>
-      <c r="C98" s="3">
-        <v>3.5</v>
+        <v>42</v>
       </c>
       <c r="F98" s="4"/>
       <c r="G98">
@@ -2859,18 +2874,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B99" t="s">
-        <v>48</v>
-      </c>
-      <c r="C99" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="D99" s="3">
-        <v>3.5</v>
+        <v>43</v>
       </c>
       <c r="F99" s="4"/>
       <c r="G99">
@@ -2878,18 +2887,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>9</v>
       </c>
       <c r="B100" t="s">
-        <v>48</v>
-      </c>
-      <c r="C100" s="3">
-        <v>3</v>
-      </c>
-      <c r="D100" s="3">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="F100" s="4"/>
       <c r="G100">
@@ -2897,18 +2900,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>9</v>
       </c>
       <c r="B101" t="s">
-        <v>48</v>
-      </c>
-      <c r="C101" s="3">
-        <v>2.8</v>
-      </c>
-      <c r="D101" s="3">
-        <v>2.8</v>
+        <v>71</v>
       </c>
       <c r="F101" s="4"/>
       <c r="G101">
@@ -2916,12 +2913,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>9</v>
       </c>
       <c r="B102" t="s">
-        <v>49</v>
+        <v>70</v>
+      </c>
+      <c r="C102" s="3">
+        <v>3.5</v>
       </c>
       <c r="F102" s="4"/>
       <c r="G102">
@@ -2929,12 +2929,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>9</v>
       </c>
       <c r="B103" t="s">
-        <v>50</v>
+        <v>45</v>
+      </c>
+      <c r="C103" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="D103" s="3">
+        <v>3.5</v>
       </c>
       <c r="F103" s="4"/>
       <c r="G103">
@@ -2942,18 +2948,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>9</v>
       </c>
       <c r="B104" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C104" s="3">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="D104" s="3">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="F104" s="4"/>
       <c r="G104">
@@ -2961,18 +2967,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>9</v>
       </c>
       <c r="B105" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C105" s="3">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="D105" s="3">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="F105" s="4"/>
       <c r="G105">
@@ -2980,12 +2986,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>9</v>
       </c>
       <c r="B106" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F106" s="4"/>
       <c r="G106">
@@ -2993,12 +2999,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>9</v>
       </c>
       <c r="B107" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F107" s="4"/>
       <c r="G107">
@@ -3006,12 +3012,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>9</v>
       </c>
       <c r="B108" t="s">
-        <v>54</v>
+        <v>48</v>
+      </c>
+      <c r="C108" s="3">
+        <v>2.75</v>
+      </c>
+      <c r="D108" s="3">
+        <v>2.75</v>
       </c>
       <c r="F108" s="4"/>
       <c r="G108">
@@ -3019,12 +3031,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>9</v>
       </c>
       <c r="B109" t="s">
-        <v>55</v>
+        <v>48</v>
+      </c>
+      <c r="C109" s="3">
+        <v>2.25</v>
+      </c>
+      <c r="D109" s="3">
+        <v>2.25</v>
       </c>
       <c r="F109" s="4"/>
       <c r="G109">
@@ -3032,12 +3050,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>9</v>
       </c>
       <c r="B110" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F110" s="4"/>
       <c r="G110">
@@ -3045,12 +3063,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>9</v>
       </c>
       <c r="B111" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F111" s="4"/>
       <c r="G111">
@@ -3058,12 +3076,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>9</v>
       </c>
       <c r="B112" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F112" s="4"/>
       <c r="G112">
@@ -3071,12 +3089,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>9</v>
       </c>
       <c r="B113" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F113" s="4"/>
       <c r="G113">
@@ -3084,12 +3102,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>9</v>
       </c>
       <c r="B114" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F114" s="4"/>
       <c r="G114">
@@ -3097,12 +3115,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>9</v>
       </c>
       <c r="B115" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F115" s="4"/>
       <c r="G115">
@@ -3110,12 +3128,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>9</v>
       </c>
       <c r="B116" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F116" s="4"/>
       <c r="G116">
@@ -3123,12 +3141,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B117" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F117" s="4"/>
       <c r="G117">
@@ -3136,12 +3154,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B118" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F118" s="4"/>
       <c r="G118">
@@ -3149,12 +3167,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B119" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F119" s="4"/>
       <c r="G119">
@@ -3162,12 +3180,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B120" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F120" s="4"/>
       <c r="G120">
@@ -3175,12 +3193,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>10</v>
       </c>
       <c r="B121" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F121" s="4"/>
       <c r="G121">
@@ -3188,12 +3206,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>10</v>
       </c>
       <c r="B122" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F122" s="4"/>
       <c r="G122">
@@ -3201,15 +3219,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>10</v>
       </c>
       <c r="B123" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F123" s="4"/>
       <c r="G123">
+        <f>Table1[[#This Row],[OD (Inches)]]^2*8/3*Table1[[#This Row],[Length (ft)]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>10</v>
+      </c>
+      <c r="B124" t="s">
+        <v>62</v>
+      </c>
+      <c r="F124" s="4"/>
+      <c r="G124">
+        <f>Table1[[#This Row],[OD (Inches)]]^2*8/3*Table1[[#This Row],[Length (ft)]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>10</v>
+      </c>
+      <c r="B125" t="s">
+        <v>63</v>
+      </c>
+      <c r="F125" s="4"/>
+      <c r="G125">
+        <f>Table1[[#This Row],[OD (Inches)]]^2*8/3*Table1[[#This Row],[Length (ft)]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>10</v>
+      </c>
+      <c r="B126" t="s">
+        <v>64</v>
+      </c>
+      <c r="F126" s="4"/>
+      <c r="G126">
+        <f>Table1[[#This Row],[OD (Inches)]]^2*8/3*Table1[[#This Row],[Length (ft)]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>10</v>
+      </c>
+      <c r="B127" t="s">
+        <v>65</v>
+      </c>
+      <c r="F127" s="4"/>
+      <c r="G127">
         <f>Table1[[#This Row],[OD (Inches)]]^2*8/3*Table1[[#This Row],[Length (ft)]]</f>
         <v>0</v>
       </c>

--- a/assets/resources/tool_database.xlsx
+++ b/assets/resources/tool_database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deleum-my.sharepoint.com/personal/adam_mohdtaufik_deleum_com/Documents/Documents/ToolStringEditor/assets/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1749" documentId="8_{3731B2D3-2851-4964-AE06-C382F04C3BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4C2A75E-A366-4AE9-B650-7BEB0D279349}"/>
+  <xr:revisionPtr revIDLastSave="1813" documentId="8_{3731B2D3-2851-4964-AE06-C382F04C3BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B34E248-3E80-42B9-8DD6-7F0FEBB3E50A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1763" uniqueCount="283">
   <si>
     <t>Category</t>
   </si>
@@ -396,9 +396,6 @@
     <t>QLS</t>
   </si>
   <si>
-    <t>1-3/16”-12 (GO 'A')</t>
-  </si>
-  <si>
     <t>2-3/4"</t>
   </si>
   <si>
@@ -414,9 +411,6 @@
     <t>MIT 40F (Extended)</t>
   </si>
   <si>
-    <t>CFBM (3-Arm)</t>
-  </si>
-  <si>
     <t>CFBM (6-Arm)</t>
   </si>
   <si>
@@ -897,25 +891,19 @@
     <t>Paragon II Packer</t>
   </si>
   <si>
-    <t>Column1</t>
-  </si>
-  <si>
     <t>Top Connection</t>
   </si>
   <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
     <t>ParaComm Box</t>
+  </si>
+  <si>
+    <t>GO 'A'</t>
+  </si>
+  <si>
+    <t>MBH025</t>
+  </si>
+  <si>
+    <t>UMT003</t>
   </si>
 </sst>
 </file>
@@ -1011,14 +999,14 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="165" formatCode="0.0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
@@ -1093,17 +1081,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4BAF00AD-584C-4C36-B295-B0565728D80D}" name="Table1" displayName="Table1" ref="A1:I310" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6">
-  <autoFilter ref="A1:I310" xr:uid="{4BAF00AD-584C-4C36-B295-B0565728D80D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4BAF00AD-584C-4C36-B295-B0565728D80D}" name="Table1" displayName="Table1" ref="A1:I311" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6">
+  <autoFilter ref="A1:I311" xr:uid="{4BAF00AD-584C-4C36-B295-B0565728D80D}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{684E84AF-B38C-4176-AA07-F608285CA487}" name="Category"/>
     <tableColumn id="2" xr3:uid="{600A890B-56A9-4AC9-904F-2117D4282182}" name="Tool Name"/>
     <tableColumn id="3" xr3:uid="{F28EE399-4925-4DA6-8CF9-F683C07C77BA}" name="Nominal Size" dataDxfId="5"/>
     <tableColumn id="4" xr3:uid="{EFB02EBC-CFCF-4B7F-A87C-189661AF260B}" name="OD (Inches)" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{FDE3316B-9211-4B5C-8BA2-E12555699AFF}" name="Top Connection" dataDxfId="0"/>
-    <tableColumn id="7" xr3:uid="{0A2D2393-CD0F-44A0-B456-8604435DA0F9}" name="Lower Connection" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{C93CD8A3-BB7D-49DD-8125-2279F18C0364}" name="Length (ft)" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{84782E64-954C-4816-A626-4174514181E7}" name="Weight (lbs)" dataDxfId="1">
+    <tableColumn id="9" xr3:uid="{FDE3316B-9211-4B5C-8BA2-E12555699AFF}" name="Top Connection" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{0A2D2393-CD0F-44A0-B456-8604435DA0F9}" name="Lower Connection" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{C93CD8A3-BB7D-49DD-8125-2279F18C0364}" name="Length (ft)" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{84782E64-954C-4816-A626-4174514181E7}" name="Weight (lbs)" dataDxfId="0">
       <calculatedColumnFormula>Table1[[#This Row],[OD (Inches)]]^2*8/3*Table1[[#This Row],[Length (ft)]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{9A1239CD-0A3B-4C38-B3B3-79C0DF8F3BD8}" name="Picture"/>
@@ -1399,11 +1387,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N310"/>
+  <dimension ref="A1:N311"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A294" zoomScale="78" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A283" zoomScale="84" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F310" sqref="F310"/>
+      <selection pane="topRight" activeCell="I298" sqref="I298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1433,7 +1421,7 @@
         <v>50</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>54</v>
@@ -1445,14 +1433,14 @@
         <v>46</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K1" t="str" cm="1">
-        <f t="array" ref="K1:K151">_xlfn.UNIQUE(Table1[[#All],[Tool Name]])</f>
+        <f t="array" ref="K1:K152">_xlfn.UNIQUE(Table1[[#All],[Tool Name]])</f>
         <v>Tool Name</v>
       </c>
       <c r="L1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -1481,7 +1469,7 @@
         <v>4.7</v>
       </c>
       <c r="I2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K2" t="str">
         <v>Rope Socket</v>
@@ -1517,7 +1505,7 @@
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K3" t="str">
         <v>Knuckle Joint</v>
@@ -1528,7 +1516,7 @@
       </c>
       <c r="N3">
         <f>COUNTIF(L:L,"Yes")</f>
-        <v>85</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1557,7 +1545,7 @@
         <v>2.1</v>
       </c>
       <c r="I4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K4" t="str">
         <v>Swivel Joint</v>
@@ -1568,7 +1556,7 @@
       </c>
       <c r="N4">
         <f>COUNTIF(L:L,"No")</f>
-        <v>63</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1597,7 +1585,7 @@
         <v>4.7</v>
       </c>
       <c r="I5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K5" t="str">
         <v>2' Normal Stem</v>
@@ -1637,7 +1625,7 @@
         <v>3</v>
       </c>
       <c r="I6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K6" t="str">
         <v>3' Normal Stem</v>
@@ -1648,7 +1636,7 @@
       </c>
       <c r="N6" s="8">
         <f>N3/N5</f>
-        <v>0.57432432432432434</v>
+        <v>0.7432432432432432</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1677,7 +1665,7 @@
         <v>2.1</v>
       </c>
       <c r="I7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K7" t="str">
         <v>5' Normal Stem</v>
@@ -1713,7 +1701,7 @@
         <v>4.7</v>
       </c>
       <c r="I8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K8" t="str">
         <v>20" Mechanical Link Jar (Spang)</v>
@@ -1749,7 +1737,7 @@
         <v>3</v>
       </c>
       <c r="I9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K9" t="str">
         <v>30" Mechanical Link Jar (Spang)</v>
@@ -1785,7 +1773,7 @@
         <v>2.1</v>
       </c>
       <c r="I10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K10" t="str">
         <v>20" Mechanical Tubular Jar</v>
@@ -1821,7 +1809,7 @@
         <v>18.8</v>
       </c>
       <c r="I11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K11" t="str">
         <v>30" Mechanical Tubular Jar</v>
@@ -1857,7 +1845,7 @@
         <v>12</v>
       </c>
       <c r="I12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K12" t="str">
         <v>Hydraulic Jar</v>
@@ -1893,7 +1881,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="I13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K13" t="str">
         <v>Spring Jar</v>
@@ -1929,14 +1917,14 @@
         <v>28.1</v>
       </c>
       <c r="I14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K14" t="str">
         <v>Accelerator</v>
       </c>
       <c r="L14" t="str">
         <f>VLOOKUP(K14,Table1[[Tool Name]:[Picture]],8,FALSE)</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1965,7 +1953,7 @@
         <v>18</v>
       </c>
       <c r="I15" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K15" t="str">
         <v>Knuckle Jar</v>
@@ -2001,7 +1989,7 @@
         <v>12.5</v>
       </c>
       <c r="I16" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K16" t="str">
         <v>Drift</v>
@@ -2037,7 +2025,7 @@
         <v>46.9</v>
       </c>
       <c r="I17" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K17" t="str">
         <v>Gauge Cutter</v>
@@ -2073,7 +2061,7 @@
         <v>30</v>
       </c>
       <c r="I18" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K18" t="str">
         <v>2' Roller Stem</v>
@@ -2109,7 +2097,7 @@
         <v>20.8</v>
       </c>
       <c r="I19" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K19" t="str">
         <v>3' Roller Stem</v>
@@ -2124,7 +2112,7 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>51</v>
@@ -2145,7 +2133,7 @@
         <v>28.1</v>
       </c>
       <c r="I20" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K20" t="str">
         <v>5' Roller Stem</v>
@@ -2160,7 +2148,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>52</v>
@@ -2181,7 +2169,7 @@
         <v>18</v>
       </c>
       <c r="I21" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K21" t="str">
         <v>Roller Bogie</v>
@@ -2196,7 +2184,7 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>53</v>
@@ -2217,7 +2205,7 @@
         <v>12.5</v>
       </c>
       <c r="I22" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K22" t="str">
         <v>VariBall</v>
@@ -2232,7 +2220,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>51</v>
@@ -2253,7 +2241,7 @@
         <v>37.5</v>
       </c>
       <c r="I23" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K23" t="str">
         <v>2' Tungsten Stem</v>
@@ -2268,7 +2256,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>52</v>
@@ -2289,7 +2277,7 @@
         <v>24</v>
       </c>
       <c r="I24" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K24" t="str">
         <v>3' Tungsten Stem</v>
@@ -2304,7 +2292,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>53</v>
@@ -2325,7 +2313,7 @@
         <v>16.7</v>
       </c>
       <c r="I25" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K25" t="str">
         <v>5' Tungsten Stem</v>
@@ -2340,7 +2328,7 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>51</v>
@@ -2349,10 +2337,10 @@
         <v>1.875</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G26" s="4">
         <f>64/12</f>
@@ -2363,7 +2351,7 @@
         <v>23.1</v>
       </c>
       <c r="I26" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K26" t="str">
         <v>SB</v>
@@ -2378,19 +2366,19 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D27" s="3">
         <v>2.5</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G27" s="4">
         <v>4</v>
@@ -2399,7 +2387,7 @@
         <v>37.5</v>
       </c>
       <c r="I27" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K27" t="str">
         <v>RB</v>
@@ -2436,7 +2424,7 @@
         <v>28.1</v>
       </c>
       <c r="I28" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K28" t="str">
         <v>SS</v>
@@ -2454,16 +2442,16 @@
         <v>9</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D29" s="3">
         <v>1.75</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G29" s="4">
         <f>43/12</f>
@@ -2473,7 +2461,7 @@
         <v>8.5</v>
       </c>
       <c r="I29" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K29" t="str">
         <v>RS</v>
@@ -2510,7 +2498,7 @@
         <v>18</v>
       </c>
       <c r="I30" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K30" t="str">
         <v>JDC</v>
@@ -2547,7 +2535,7 @@
         <v>12.5</v>
       </c>
       <c r="I31" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K31" t="str">
         <v>JUC</v>
@@ -2571,10 +2559,10 @@
         <v>1.875</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G32" s="4">
         <f>57.4/12</f>
@@ -2585,7 +2573,7 @@
         <v>32.120000000000005</v>
       </c>
       <c r="I32" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K32" t="str">
         <v>JDS</v>
@@ -2603,16 +2591,16 @@
         <v>10</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D33" s="3">
         <v>2.5</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G33" s="4">
         <f>82/12</f>
@@ -2623,7 +2611,7 @@
         <v>77</v>
       </c>
       <c r="I33" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K33" t="str">
         <v>JUS</v>
@@ -2641,16 +2629,16 @@
         <v>11</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D34" s="3">
         <v>2.5</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G34" s="4">
         <f>107.05/12</f>
@@ -2661,7 +2649,7 @@
         <v>148.68055555555554</v>
       </c>
       <c r="I34" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K34" t="str">
         <v>GS</v>
@@ -2685,10 +2673,10 @@
         <v>1.875</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G35" s="4">
         <f>74.58/12</f>
@@ -2699,7 +2687,7 @@
         <v>58.265625</v>
       </c>
       <c r="I35" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K35" t="str">
         <v>GR</v>
@@ -2714,7 +2702,7 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>51</v>
@@ -2736,7 +2724,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="I36" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K36" t="str">
         <v>Heavy Duty Pulling Tool</v>
@@ -2751,19 +2739,19 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D37" s="3">
         <v>2.5</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G37" s="4">
         <f>18.7/12</f>
@@ -2773,7 +2761,7 @@
         <v>8.4</v>
       </c>
       <c r="I37" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K37" t="str">
         <v>42BO</v>
@@ -2785,7 +2773,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B38" t="s">
         <v>98</v>
@@ -2807,7 +2795,7 @@
         <v>15</v>
       </c>
       <c r="I38" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K38" t="str">
         <v>142BO</v>
@@ -2819,7 +2807,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B39" t="s">
         <v>98</v>
@@ -2841,7 +2829,7 @@
         <v>15</v>
       </c>
       <c r="I39" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K39" t="str">
         <v>Tubing End Locator</v>
@@ -2853,7 +2841,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B40" t="s">
         <v>98</v>
@@ -2875,7 +2863,7 @@
         <v>15</v>
       </c>
       <c r="I40" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K40" t="str">
         <v>Check Set Tool</v>
@@ -2887,7 +2875,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B41" t="s">
         <v>98</v>
@@ -2909,7 +2897,7 @@
         <v>15</v>
       </c>
       <c r="I41" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K41" t="str">
         <v>X-Over (1-1/16" SR Pin to 15/16" SR Box)</v>
@@ -2921,7 +2909,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B42" t="s">
         <v>98</v>
@@ -2943,7 +2931,7 @@
         <v>15</v>
       </c>
       <c r="I42" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K42" t="str">
         <v>X-Over (1-1/16" SR Box to 1-1/16" SR Box)</v>
@@ -2955,7 +2943,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B43" t="s">
         <v>98</v>
@@ -2977,7 +2965,7 @@
         <v>15</v>
       </c>
       <c r="I43" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K43" t="str">
         <v>X-Over (15/16" SR Pin to 1-1/16" SR Box)</v>
@@ -2989,7 +2977,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B44" t="s">
         <v>34</v>
@@ -3011,7 +2999,7 @@
         <v>10</v>
       </c>
       <c r="I44" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K44" t="str">
         <v>X-Over (15/16" SR Box to 15/16" SR Box)</v>
@@ -3023,7 +3011,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B45" t="s">
         <v>34</v>
@@ -3045,7 +3033,7 @@
         <v>10</v>
       </c>
       <c r="I45" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K45" t="str">
         <v>X-Over (1-9/16" SR Pin to 1-1/16" SR Box)</v>
@@ -3057,7 +3045,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B46" t="s">
         <v>34</v>
@@ -3079,7 +3067,7 @@
         <v>10</v>
       </c>
       <c r="I46" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K46" t="str">
         <v>X-Over (1-1/16" SR Pin to 1-9/16" SR Box)</v>
@@ -3091,7 +3079,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B47" t="s">
         <v>34</v>
@@ -3113,7 +3101,7 @@
         <v>10</v>
       </c>
       <c r="I47" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K47" t="str">
         <v>QLS</v>
@@ -3125,7 +3113,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B48" t="s">
         <v>34</v>
@@ -3147,7 +3135,7 @@
         <v>10</v>
       </c>
       <c r="I48" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K48" t="str">
         <v>X-Line</v>
@@ -3159,7 +3147,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B49" t="s">
         <v>34</v>
@@ -3181,7 +3169,7 @@
         <v>10</v>
       </c>
       <c r="I49" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K49" t="str">
         <v>JK-1</v>
@@ -3217,7 +3205,7 @@
         <v>18.8</v>
       </c>
       <c r="I50" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K50" t="str">
         <v>GA-2</v>
@@ -3253,7 +3241,7 @@
         <v>12</v>
       </c>
       <c r="I51" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K51" t="str">
         <v>D1T Running Tool</v>
@@ -3289,7 +3277,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="I52" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K52" t="str">
         <v>SO Running Tool</v>
@@ -3325,7 +3313,7 @@
         <v>28.1</v>
       </c>
       <c r="I53" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K53" t="str">
         <v>OK-6 Kickover Tool</v>
@@ -3361,7 +3349,7 @@
         <v>18</v>
       </c>
       <c r="I54" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K54" t="str">
         <v>Merla Kickover Tool</v>
@@ -3397,7 +3385,7 @@
         <v>12.5</v>
       </c>
       <c r="I55" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K55" t="str">
         <v>Wire Finder</v>
@@ -3433,7 +3421,7 @@
         <v>46.9</v>
       </c>
       <c r="I56" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K56" t="str">
         <v>Wire Scratcher</v>
@@ -3469,7 +3457,7 @@
         <v>30</v>
       </c>
       <c r="I57" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K57" t="str">
         <v>Lead Impression Block</v>
@@ -3505,7 +3493,7 @@
         <v>20.8</v>
       </c>
       <c r="I58" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K58" t="str">
         <v>Long Lead Impression Block</v>
@@ -3523,16 +3511,16 @@
         <v>12</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D59" s="3">
         <v>2.4</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G59" s="4">
         <f>22/12</f>
@@ -3543,7 +3531,7 @@
         <v>17.600000000000001</v>
       </c>
       <c r="I59" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K59" t="str">
         <v>Sand Pump Bailer</v>
@@ -3561,7 +3549,7 @@
         <v>12</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D60" s="3">
         <v>2.77</v>
@@ -3581,7 +3569,7 @@
         <v>15.400000000000002</v>
       </c>
       <c r="I60" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K60" t="str">
         <v>Hydrostatic Bailer</v>
@@ -3599,16 +3587,16 @@
         <v>12</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D61" s="3">
         <v>3.85</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G61" s="4">
         <f>25/12</f>
@@ -3619,7 +3607,7 @@
         <v>40.700000000000003</v>
       </c>
       <c r="I61" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K61" t="str">
         <v>Blind Box</v>
@@ -3634,7 +3622,7 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="4">
@@ -3642,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K62" t="str">
         <v>Heavy Duty Releasable Overshot</v>
@@ -3657,7 +3645,7 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>51</v>
@@ -3678,7 +3666,7 @@
         <v>23.8</v>
       </c>
       <c r="I63" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K63" t="str">
         <v>Overshot</v>
@@ -3693,7 +3681,7 @@
         <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>52</v>
@@ -3714,7 +3702,7 @@
         <v>15.9</v>
       </c>
       <c r="I64" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K64" t="str">
         <v>Fishing Magnet</v>
@@ -3729,7 +3717,7 @@
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>53</v>
@@ -3751,7 +3739,7 @@
         <v>10.4</v>
       </c>
       <c r="I65" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K65" t="str">
         <v>Bottom Sub</v>
@@ -3766,7 +3754,7 @@
         <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>77</v>
@@ -3775,10 +3763,10 @@
         <v>2.125</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G66" s="4">
         <v>2</v>
@@ -3787,7 +3775,7 @@
         <v>31.1</v>
       </c>
       <c r="I66" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K66" t="str">
         <v>GLV Catcher (with X Lock Mandrel)</v>
@@ -3802,19 +3790,19 @@
         <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D67" s="3">
         <v>2.5</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G67" s="4">
         <v>2</v>
@@ -3823,7 +3811,7 @@
         <v>40</v>
       </c>
       <c r="I67" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K67" t="str">
         <v>Junk Catcher</v>
@@ -3838,7 +3826,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>51</v>
@@ -3859,7 +3847,7 @@
         <v>38.6</v>
       </c>
       <c r="I68" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K68" t="str">
         <v>A-Stop</v>
@@ -3874,7 +3862,7 @@
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>52</v>
@@ -3895,7 +3883,7 @@
         <v>23.6</v>
       </c>
       <c r="I69" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K69" t="str">
         <v>G-Stop</v>
@@ -3910,7 +3898,7 @@
         <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>53</v>
@@ -3931,7 +3919,7 @@
         <v>16.3</v>
       </c>
       <c r="I70" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K70" t="str">
         <v>XX Plug</v>
@@ -3946,7 +3934,7 @@
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>77</v>
@@ -3955,10 +3943,10 @@
         <v>2.125</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G71" s="4">
         <v>3</v>
@@ -3967,7 +3955,7 @@
         <v>49.4</v>
       </c>
       <c r="I71" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K71" t="str">
         <v>XN Plug</v>
@@ -3982,19 +3970,19 @@
         <v>2</v>
       </c>
       <c r="B72" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D72" s="3">
         <v>2.5</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G72" s="4">
         <v>3</v>
@@ -4003,7 +3991,7 @@
         <v>68.8</v>
       </c>
       <c r="I72" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K72" t="str">
         <v>PX Plug</v>
@@ -4018,7 +4006,7 @@
         <v>2</v>
       </c>
       <c r="B73" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>51</v>
@@ -4039,7 +4027,7 @@
         <v>65.3</v>
       </c>
       <c r="I73" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K73" t="str">
         <v>PXN Plug</v>
@@ -4054,7 +4042,7 @@
         <v>2</v>
       </c>
       <c r="B74" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>52</v>
@@ -4075,7 +4063,7 @@
         <v>41.7</v>
       </c>
       <c r="I74" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K74" t="str">
         <v>Spacer Pipes</v>
@@ -4090,7 +4078,7 @@
         <v>2</v>
       </c>
       <c r="B75" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>53</v>
@@ -4111,7 +4099,7 @@
         <v>28.4</v>
       </c>
       <c r="I75" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K75" t="str">
         <v>Bullnose</v>
@@ -4126,7 +4114,7 @@
         <v>2</v>
       </c>
       <c r="B76" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>77</v>
@@ -4135,10 +4123,10 @@
         <v>2.125</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G76" s="4">
         <v>5</v>
@@ -4147,7 +4135,7 @@
         <v>86</v>
       </c>
       <c r="I76" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K76" t="str">
         <v>FXE WR-SCSSSV</v>
@@ -4162,19 +4150,19 @@
         <v>2</v>
       </c>
       <c r="B77" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D77" s="3">
         <v>2.5</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G77" s="4">
         <v>5</v>
@@ -4183,7 +4171,7 @@
         <v>120</v>
       </c>
       <c r="I77" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K77" t="str">
         <v>B7 WR-SCSSSV</v>
@@ -4195,17 +4183,20 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B78" t="s">
         <v>14</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D78" s="3">
         <v>2.1880000000000002</v>
       </c>
+      <c r="E78" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="F78" s="3" t="s">
         <v>58</v>
       </c>
@@ -4216,7 +4207,7 @@
         <v>15</v>
       </c>
       <c r="I78" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K78" t="str">
         <v>SOF WR-SCSSSV</v>
@@ -4228,7 +4219,7 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B79" t="s">
         <v>14</v>
@@ -4239,6 +4230,9 @@
       <c r="D79" s="3">
         <v>1.776</v>
       </c>
+      <c r="E79" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="F79" s="3" t="s">
         <v>58</v>
       </c>
@@ -4249,7 +4243,7 @@
         <v>13</v>
       </c>
       <c r="I79" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K79" t="str">
         <v>Releasable Bulldog Spear</v>
@@ -4261,7 +4255,7 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B80" t="s">
         <v>14</v>
@@ -4272,6 +4266,9 @@
       <c r="D80" s="3">
         <v>1.4370000000000001</v>
       </c>
+      <c r="E80" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="F80" s="3" t="s">
         <v>58</v>
       </c>
@@ -4282,7 +4279,7 @@
         <v>11</v>
       </c>
       <c r="I80" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K80" t="str">
         <v>Non-Releasable Bulldog Spear</v>
@@ -4294,17 +4291,20 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B81" t="s">
         <v>15</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D81" s="3">
         <v>2.1800000000000002</v>
       </c>
+      <c r="E81" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="F81" s="3" t="s">
         <v>58</v>
       </c>
@@ -4315,7 +4315,7 @@
         <v>15</v>
       </c>
       <c r="I81" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K81" t="str">
         <v>Centre Spear</v>
@@ -4327,7 +4327,7 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B82" t="s">
         <v>15</v>
@@ -4338,6 +4338,9 @@
       <c r="D82" s="3">
         <v>1.77</v>
       </c>
+      <c r="E82" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="F82" s="3" t="s">
         <v>58</v>
       </c>
@@ -4348,7 +4351,7 @@
         <v>13</v>
       </c>
       <c r="I82" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K82" t="str">
         <v>Wire Grab</v>
@@ -4360,7 +4363,7 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B83" t="s">
         <v>15</v>
@@ -4371,6 +4374,9 @@
       <c r="D83" s="3">
         <v>1.43</v>
       </c>
+      <c r="E83" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="F83" s="3" t="s">
         <v>58</v>
       </c>
@@ -4381,29 +4387,32 @@
         <v>11</v>
       </c>
       <c r="I83" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K83" t="str">
         <v>Alligator Grab</v>
       </c>
       <c r="L83" t="str">
         <f>VLOOKUP(K83,Table1[[Tool Name]:[Picture]],8,FALSE)</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B84" t="s">
         <v>16</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D84" s="3">
         <v>2.1800000000000002</v>
       </c>
+      <c r="E84" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="F84" s="3" t="s">
         <v>58</v>
       </c>
@@ -4414,7 +4423,7 @@
         <v>15</v>
       </c>
       <c r="I84" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K84" t="str">
         <v>Tubing Broach</v>
@@ -4426,7 +4435,7 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B85" t="s">
         <v>16</v>
@@ -4437,6 +4446,9 @@
       <c r="D85" s="3">
         <v>1.77</v>
       </c>
+      <c r="E85" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="F85" s="3" t="s">
         <v>58</v>
       </c>
@@ -4447,7 +4459,7 @@
         <v>13</v>
       </c>
       <c r="I85" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K85" t="str">
         <v>Tubing Swage</v>
@@ -4459,7 +4471,7 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B86" t="s">
         <v>16</v>
@@ -4470,6 +4482,9 @@
       <c r="D86" s="3">
         <v>1.43</v>
       </c>
+      <c r="E86" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="F86" s="3" t="s">
         <v>58</v>
       </c>
@@ -4480,7 +4495,7 @@
         <v>11</v>
       </c>
       <c r="I86" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K86" t="str">
         <v>Go-Devil</v>
@@ -4492,17 +4507,20 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B87" t="s">
         <v>17</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D87" s="3">
         <v>2.1800000000000002</v>
       </c>
+      <c r="E87" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="F87" s="3" t="s">
         <v>58</v>
       </c>
@@ -4513,7 +4531,7 @@
         <v>15</v>
       </c>
       <c r="I87" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K87" t="str">
         <v>Cable Head</v>
@@ -4525,7 +4543,7 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B88" t="s">
         <v>17</v>
@@ -4536,6 +4554,9 @@
       <c r="D88" s="3">
         <v>1.77</v>
       </c>
+      <c r="E88" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="F88" s="3" t="s">
         <v>58</v>
       </c>
@@ -4546,7 +4567,7 @@
         <v>13</v>
       </c>
       <c r="I88" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K88" t="str">
         <v>PCH</v>
@@ -4558,7 +4579,7 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B89" t="s">
         <v>17</v>
@@ -4569,6 +4590,9 @@
       <c r="D89" s="3">
         <v>1.43</v>
       </c>
+      <c r="E89" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="F89" s="3" t="s">
         <v>58</v>
       </c>
@@ -4579,7 +4603,7 @@
         <v>11</v>
       </c>
       <c r="I89" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K89" t="str">
         <v>PPU Iia</v>
@@ -4591,7 +4615,7 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B90" t="s">
         <v>18</v>
@@ -4603,7 +4627,7 @@
         <v>2.8119999999999998</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>93</v>
@@ -4615,7 +4639,7 @@
         <v>17</v>
       </c>
       <c r="I90" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K90" t="str">
         <v>X-Over (PPU to Sondex)</v>
@@ -4627,19 +4651,19 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B91" t="s">
         <v>18</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D91" s="3">
         <v>2.25</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>95</v>
@@ -4651,7 +4675,7 @@
         <v>15</v>
       </c>
       <c r="I91" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K91" t="str">
         <v>X-Over (PPU to GO-A Pin)</v>
@@ -4663,7 +4687,7 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B92" t="s">
         <v>18</v>
@@ -4675,7 +4699,7 @@
         <v>1.859</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="F92" s="3" t="s">
         <v>95</v>
@@ -4687,7 +4711,7 @@
         <v>13</v>
       </c>
       <c r="I92" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K92" t="str">
         <v>X-Over (PPU to SR Box)</v>
@@ -4699,7 +4723,7 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B93" t="s">
         <v>18</v>
@@ -4711,7 +4735,7 @@
         <v>1.4219999999999999</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="F93" s="3" t="s">
         <v>95</v>
@@ -4723,7 +4747,7 @@
         <v>11</v>
       </c>
       <c r="I93" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K93" t="str">
         <v>X-Over (PPU to Trigger Probe)</v>
@@ -4735,7 +4759,7 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B94" t="s">
         <v>18</v>
@@ -4747,7 +4771,7 @@
         <v>1.2909999999999999</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>95</v>
@@ -4759,19 +4783,19 @@
         <v>11</v>
       </c>
       <c r="I94" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K94" t="str">
-        <v>MBH030</v>
+        <v>MBH025</v>
       </c>
       <c r="L94" t="str">
         <f>VLOOKUP(K94,Table1[[Tool Name]:[Picture]],8,FALSE)</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B95" t="s">
         <v>19</v>
@@ -4783,7 +4807,7 @@
         <v>2.7959999999999998</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>93</v>
@@ -4795,31 +4819,31 @@
         <v>17</v>
       </c>
       <c r="I95" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K95" t="str">
-        <v>PGR032</v>
+        <v>MBH030</v>
       </c>
       <c r="L95" t="str">
         <f>VLOOKUP(K95,Table1[[Tool Name]:[Picture]],8,FALSE)</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B96" t="s">
         <v>19</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D96" s="3">
         <v>2.25</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>95</v>
@@ -4831,19 +4855,19 @@
         <v>15</v>
       </c>
       <c r="I96" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K96" t="str">
-        <v>PGR021</v>
+        <v>PGR032</v>
       </c>
       <c r="L96" t="str">
         <f>VLOOKUP(K96,Table1[[Tool Name]:[Picture]],8,FALSE)</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B97" t="s">
         <v>19</v>
@@ -4855,7 +4879,7 @@
         <v>1.859</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="F97" s="3" t="s">
         <v>95</v>
@@ -4867,19 +4891,19 @@
         <v>13</v>
       </c>
       <c r="I97" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K97" t="str">
-        <v>PGR020</v>
+        <v>PGR021</v>
       </c>
       <c r="L97" t="str">
         <f>VLOOKUP(K97,Table1[[Tool Name]:[Picture]],8,FALSE)</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B98" t="s">
         <v>19</v>
@@ -4891,7 +4915,7 @@
         <v>1.4219999999999999</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="F98" s="3" t="s">
         <v>95</v>
@@ -4903,19 +4927,19 @@
         <v>11</v>
       </c>
       <c r="I98" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K98" t="str">
-        <v>PRC001</v>
+        <v>PGR020</v>
       </c>
       <c r="L98" t="str">
         <f>VLOOKUP(K98,Table1[[Tool Name]:[Picture]],8,FALSE)</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B99" t="s">
         <v>20</v>
@@ -4927,7 +4951,7 @@
         <v>2.8119999999999998</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="F99" s="3" t="s">
         <v>93</v>
@@ -4939,31 +4963,31 @@
         <v>17</v>
       </c>
       <c r="I99" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K99" t="str">
-        <v>MIT 24F (Standard)</v>
+        <v>PRC001</v>
       </c>
       <c r="L99" t="str">
         <f>VLOOKUP(K99,Table1[[Tool Name]:[Picture]],8,FALSE)</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B100" t="s">
         <v>20</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D100" s="3">
         <v>2.25</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>95</v>
@@ -4975,19 +4999,19 @@
         <v>15</v>
       </c>
       <c r="I100" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K100" t="str">
-        <v>MIT 24F (Extended)</v>
+        <v>MIT 24F (Standard)</v>
       </c>
       <c r="L100" t="str">
         <f>VLOOKUP(K100,Table1[[Tool Name]:[Picture]],8,FALSE)</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B101" t="s">
         <v>20</v>
@@ -4999,7 +5023,7 @@
         <v>1.859</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>95</v>
@@ -5011,19 +5035,19 @@
         <v>13</v>
       </c>
       <c r="I101" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K101" t="str">
-        <v>MIT 40F (Standard)</v>
+        <v>MIT 24F (Extended)</v>
       </c>
       <c r="L101" t="str">
         <f>VLOOKUP(K101,Table1[[Tool Name]:[Picture]],8,FALSE)</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B102" t="s">
         <v>20</v>
@@ -5035,7 +5059,7 @@
         <v>1.4219999999999999</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>95</v>
@@ -5047,19 +5071,19 @@
         <v>11</v>
       </c>
       <c r="I102" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K102" t="str">
-        <v>MIT 40F (Extended)</v>
+        <v>MIT 40F (Standard)</v>
       </c>
       <c r="L102" t="str">
         <f>VLOOKUP(K102,Table1[[Tool Name]:[Picture]],8,FALSE)</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B103" t="s">
         <v>20</v>
@@ -5071,7 +5095,7 @@
         <v>1.2909999999999999</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>95</v>
@@ -5083,19 +5107,19 @@
         <v>11</v>
       </c>
       <c r="I103" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K103" t="str">
-        <v>UMT007</v>
+        <v>MIT 40F (Extended)</v>
       </c>
       <c r="L103" t="str">
         <f>VLOOKUP(K103,Table1[[Tool Name]:[Picture]],8,FALSE)</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B104" t="s">
         <v>21</v>
@@ -5107,7 +5131,7 @@
         <v>2.7959999999999998</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="F104" s="3" t="s">
         <v>93</v>
@@ -5119,31 +5143,31 @@
         <v>17</v>
       </c>
       <c r="I104" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K104" t="str">
-        <v>QPC201</v>
+        <v>UMT003</v>
       </c>
       <c r="L104" t="str">
         <f>VLOOKUP(K104,Table1[[Tool Name]:[Picture]],8,FALSE)</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B105" t="s">
         <v>21</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D105" s="3">
         <v>2.25</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>95</v>
@@ -5155,19 +5179,19 @@
         <v>15</v>
       </c>
       <c r="I105" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K105" t="str">
-        <v>QPC004</v>
+        <v>UMT007</v>
       </c>
       <c r="L105" t="str">
         <f>VLOOKUP(K105,Table1[[Tool Name]:[Picture]],8,FALSE)</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B106" t="s">
         <v>21</v>
@@ -5179,7 +5203,7 @@
         <v>1.859</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="F106" s="3" t="s">
         <v>95</v>
@@ -5191,19 +5215,19 @@
         <v>13</v>
       </c>
       <c r="I106" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K106" t="str">
-        <v>QPC003</v>
+        <v>QPC201</v>
       </c>
       <c r="L106" t="str">
         <f>VLOOKUP(K106,Table1[[Tool Name]:[Picture]],8,FALSE)</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B107" t="s">
         <v>21</v>
@@ -5215,7 +5239,7 @@
         <v>1.4219999999999999</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>95</v>
@@ -5227,19 +5251,19 @@
         <v>11</v>
       </c>
       <c r="I107" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K107" t="str">
-        <v>PKJ013</v>
+        <v>QPC004</v>
       </c>
       <c r="L107" t="str">
         <f>VLOOKUP(K107,Table1[[Tool Name]:[Picture]],8,FALSE)</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B108" t="s">
         <v>96</v>
@@ -5251,7 +5275,7 @@
         <v>2.72</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="F108" s="3" t="s">
         <v>93</v>
@@ -5263,31 +5287,31 @@
         <v>10</v>
       </c>
       <c r="I108" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K108" t="str">
-        <v>ILS021</v>
+        <v>QPC003</v>
       </c>
       <c r="L108" t="str">
         <f>VLOOKUP(K108,Table1[[Tool Name]:[Picture]],8,FALSE)</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B109" t="s">
         <v>96</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D109" s="3">
         <v>2.25</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="F109" s="3" t="s">
         <v>93</v>
@@ -5299,19 +5323,19 @@
         <v>8</v>
       </c>
       <c r="I109" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K109" t="str">
-        <v>ILS022</v>
+        <v>PKJ013</v>
       </c>
       <c r="L109" t="str">
         <f>VLOOKUP(K109,Table1[[Tool Name]:[Picture]],8,FALSE)</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B110" t="s">
         <v>96</v>
@@ -5323,7 +5347,7 @@
         <v>1.81</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="F110" s="3" t="s">
         <v>93</v>
@@ -5335,19 +5359,19 @@
         <v>6</v>
       </c>
       <c r="I110" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K110" t="str">
-        <v>SAT005</v>
+        <v>ILS021</v>
       </c>
       <c r="L110" t="str">
         <f>VLOOKUP(K110,Table1[[Tool Name]:[Picture]],8,FALSE)</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B111" t="s">
         <v>13</v>
@@ -5359,7 +5383,7 @@
         <v>2.72</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="F111" s="3" t="s">
         <v>93</v>
@@ -5371,31 +5395,31 @@
         <v>15</v>
       </c>
       <c r="I111" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K111" t="str">
-        <v>FDR020</v>
+        <v>ILS022</v>
       </c>
       <c r="L111" t="str">
         <f>VLOOKUP(K111,Table1[[Tool Name]:[Picture]],8,FALSE)</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B112" t="s">
         <v>13</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D112" s="3">
         <v>2.25</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="F112" s="3" t="s">
         <v>93</v>
@@ -5407,10 +5431,10 @@
         <v>13</v>
       </c>
       <c r="I112" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K112" t="str">
-        <v>CTF004</v>
+        <v>SAT005</v>
       </c>
       <c r="L112" t="str">
         <f>VLOOKUP(K112,Table1[[Tool Name]:[Picture]],8,FALSE)</f>
@@ -5419,7 +5443,7 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B113" t="s">
         <v>13</v>
@@ -5431,7 +5455,7 @@
         <v>1.81</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="F113" s="3" t="s">
         <v>93</v>
@@ -5443,10 +5467,10 @@
         <v>11</v>
       </c>
       <c r="I113" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K113" t="str">
-        <v>CFJM08</v>
+        <v>FDR020</v>
       </c>
       <c r="L113" t="str">
         <f>VLOOKUP(K113,Table1[[Tool Name]:[Picture]],8,FALSE)</f>
@@ -5455,10 +5479,10 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B114" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>53</v>
@@ -5476,10 +5500,10 @@
         <v>2</v>
       </c>
       <c r="I114" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K114" t="str">
-        <v>CFSM</v>
+        <v>CTF004</v>
       </c>
       <c r="L114" t="str">
         <f>VLOOKUP(K114,Table1[[Tool Name]:[Picture]],8,FALSE)</f>
@@ -5488,10 +5512,10 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B115" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>52</v>
@@ -5509,22 +5533,22 @@
         <v>2</v>
       </c>
       <c r="I115" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K115" t="str">
-        <v>CFBM (3-Arm)</v>
+        <v>CFJM08</v>
       </c>
       <c r="L115" t="str">
         <f>VLOOKUP(K115,Table1[[Tool Name]:[Picture]],8,FALSE)</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B116" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>63</v>
@@ -5542,25 +5566,25 @@
         <v>4</v>
       </c>
       <c r="I116" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K116" t="str">
-        <v>CFBM (6-Arm)</v>
+        <v>CFSM</v>
       </c>
       <c r="L116" t="str">
         <f>VLOOKUP(K116,Table1[[Tool Name]:[Picture]],8,FALSE)</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B117" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D117" s="3">
         <v>2.5</v>
@@ -5575,10 +5599,10 @@
         <v>6.5</v>
       </c>
       <c r="I117" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K117" t="str">
-        <v>BUL006</v>
+        <v>CFBM (6-Arm)</v>
       </c>
       <c r="L117" t="str">
         <f>VLOOKUP(K117,Table1[[Tool Name]:[Picture]],8,FALSE)</f>
@@ -5587,10 +5611,10 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B118" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>64</v>
@@ -5608,25 +5632,25 @@
         <v>10.5</v>
       </c>
       <c r="I118" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K118" t="str">
-        <v>ASB004</v>
+        <v>BUL006</v>
       </c>
       <c r="L118" t="str">
         <f>VLOOKUP(K118,Table1[[Tool Name]:[Picture]],8,FALSE)</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B119" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D119" s="3">
         <v>4</v>
@@ -5641,10 +5665,10 @@
         <v>24</v>
       </c>
       <c r="I119" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K119" t="str">
-        <v>Rotational Alignment Sub</v>
+        <v>ASB004</v>
       </c>
       <c r="L119" t="str">
         <f>VLOOKUP(K119,Table1[[Tool Name]:[Picture]],8,FALSE)</f>
@@ -5653,7 +5677,7 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B120" t="s">
         <v>22</v>
@@ -5677,10 +5701,10 @@
         <v>12.647572820000001</v>
       </c>
       <c r="I120" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K120" t="str">
-        <v>RAT001</v>
+        <v>Rotational Alignment Sub</v>
       </c>
       <c r="L120" t="str">
         <f>VLOOKUP(K120,Table1[[Tool Name]:[Picture]],8,FALSE)</f>
@@ -5689,7 +5713,7 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B121" t="s">
         <v>22</v>
@@ -5713,10 +5737,10 @@
         <v>12.647572820000001</v>
       </c>
       <c r="I121" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K121" t="str">
-        <v>K-Set Tool</v>
+        <v>RAT001</v>
       </c>
       <c r="L121" t="str">
         <f>VLOOKUP(K121,Table1[[Tool Name]:[Picture]],8,FALSE)</f>
@@ -5725,7 +5749,7 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B122" t="s">
         <v>22</v>
@@ -5749,19 +5773,19 @@
         <v>12.647572820000001</v>
       </c>
       <c r="I122" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K122" t="str">
-        <v>Setting Adapter</v>
+        <v>K-Set Tool</v>
       </c>
       <c r="L122" t="str">
         <f>VLOOKUP(K122,Table1[[Tool Name]:[Picture]],8,FALSE)</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B123" t="s">
         <v>22</v>
@@ -5785,10 +5809,10 @@
         <v>12.647572820000001</v>
       </c>
       <c r="I123" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K123" t="str">
-        <v>Premium Bridge Plug</v>
+        <v>Setting Adapter</v>
       </c>
       <c r="L123" t="str">
         <f>VLOOKUP(K123,Table1[[Tool Name]:[Picture]],8,FALSE)</f>
@@ -5797,7 +5821,7 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B124" t="s">
         <v>23</v>
@@ -5821,19 +5845,19 @@
         <v>12.647572820000001</v>
       </c>
       <c r="I124" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K124" t="str">
-        <v>DBC12</v>
+        <v>Premium Bridge Plug</v>
       </c>
       <c r="L124" t="str">
         <f>VLOOKUP(K124,Table1[[Tool Name]:[Picture]],8,FALSE)</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B125" t="s">
         <v>23</v>
@@ -5857,10 +5881,10 @@
         <v>12.647572820000001</v>
       </c>
       <c r="I125" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K125" t="str">
-        <v>DMC05</v>
+        <v>DBC12</v>
       </c>
       <c r="L125" t="str">
         <f>VLOOKUP(K125,Table1[[Tool Name]:[Picture]],8,FALSE)</f>
@@ -5869,7 +5893,7 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B126" t="s">
         <v>23</v>
@@ -5893,10 +5917,10 @@
         <v>12.647572820000001</v>
       </c>
       <c r="I126" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K126" t="str">
-        <v>GRT10</v>
+        <v>DMC05</v>
       </c>
       <c r="L126" t="str">
         <f>VLOOKUP(K126,Table1[[Tool Name]:[Picture]],8,FALSE)</f>
@@ -5905,7 +5929,7 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B127" t="s">
         <v>23</v>
@@ -5929,10 +5953,10 @@
         <v>12.647572820000001</v>
       </c>
       <c r="I127" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K127" t="str">
-        <v>CCL10</v>
+        <v>GRT10</v>
       </c>
       <c r="L127" t="str">
         <f>VLOOKUP(K127,Table1[[Tool Name]:[Picture]],8,FALSE)</f>
@@ -5941,22 +5965,22 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B128" t="s">
         <v>44</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D128" s="3">
         <v>1.71</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G128" s="4">
         <v>2</v>
@@ -5965,10 +5989,10 @@
         <v>10</v>
       </c>
       <c r="I128" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K128" t="str">
-        <v>RCT02</v>
+        <v>CCL10</v>
       </c>
       <c r="L128" t="str">
         <f>VLOOKUP(K128,Table1[[Tool Name]:[Picture]],8,FALSE)</f>
@@ -5977,22 +6001,22 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B129" t="s">
         <v>44</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D129" s="3">
         <v>2.31</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G129" s="4">
         <v>2</v>
@@ -6001,10 +6025,10 @@
         <v>15</v>
       </c>
       <c r="I129" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K129" t="str">
-        <v>RBT01</v>
+        <v>RCT02</v>
       </c>
       <c r="L129" t="str">
         <f>VLOOKUP(K129,Table1[[Tool Name]:[Picture]],8,FALSE)</f>
@@ -6013,13 +6037,13 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B130" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D130" s="3">
         <v>2.81</v>
@@ -6038,25 +6062,25 @@
         <v>5</v>
       </c>
       <c r="I130" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K130" t="str">
-        <v>BWS01</v>
+        <v>RBT01</v>
       </c>
       <c r="L130" t="str">
         <f>VLOOKUP(K130,Table1[[Tool Name]:[Picture]],8,FALSE)</f>
-        <v>Yes</v>
+        <v>No</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B131" t="s">
+        <v>250</v>
+      </c>
+      <c r="C131" s="3" t="s">
         <v>252</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>254</v>
       </c>
       <c r="D131" s="3">
         <v>3.3130000000000002</v>
@@ -6075,25 +6099,25 @@
         <v>8</v>
       </c>
       <c r="I131" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K131" t="str">
-        <v>Optis® M160 Memory Camera</v>
+        <v>BWS01</v>
       </c>
       <c r="L131" t="str">
         <f>VLOOKUP(K131,Table1[[Tool Name]:[Picture]],8,FALSE)</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B132" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D132" s="3">
         <v>3.8130000000000002</v>
@@ -6112,10 +6136,10 @@
         <v>10</v>
       </c>
       <c r="I132" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K132" t="str">
-        <v>SBC 2W Drive Module</v>
+        <v>Optis® M160 Memory Camera</v>
       </c>
       <c r="L132" t="str">
         <f>VLOOKUP(K132,Table1[[Tool Name]:[Picture]],8,FALSE)</f>
@@ -6124,13 +6148,13 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B133" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D133" s="3">
         <v>4.5620000000000003</v>
@@ -6149,10 +6173,10 @@
         <v>12</v>
       </c>
       <c r="I133" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K133" t="str">
-        <v>SBC Brain</v>
+        <v>SBC 2W Drive Module</v>
       </c>
       <c r="L133" t="str">
         <f>VLOOKUP(K133,Table1[[Tool Name]:[Picture]],8,FALSE)</f>
@@ -6161,10 +6185,10 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B134" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>51</v>
@@ -6186,10 +6210,10 @@
         <v>1.5</v>
       </c>
       <c r="I134" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K134" t="str">
-        <v>SBC Bull Nose</v>
+        <v>SBC Brain</v>
       </c>
       <c r="L134" t="str">
         <f>VLOOKUP(K134,Table1[[Tool Name]:[Picture]],8,FALSE)</f>
@@ -6198,10 +6222,10 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B135" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>52</v>
@@ -6223,10 +6247,10 @@
         <v>1</v>
       </c>
       <c r="I135" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K135" t="str">
-        <v>SBC Comms Module</v>
+        <v>SBC Bull Nose</v>
       </c>
       <c r="L135" t="str">
         <f>VLOOKUP(K135,Table1[[Tool Name]:[Picture]],8,FALSE)</f>
@@ -6235,10 +6259,10 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B136" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>51</v>
@@ -6260,10 +6284,10 @@
         <v>1.5</v>
       </c>
       <c r="I136" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K136" t="str">
-        <v>SBC Knuckle Joint</v>
+        <v>SBC Comms Module</v>
       </c>
       <c r="L136" t="str">
         <f>VLOOKUP(K136,Table1[[Tool Name]:[Picture]],8,FALSE)</f>
@@ -6272,13 +6296,13 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B137" t="s">
+        <v>217</v>
+      </c>
+      <c r="C137" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>221</v>
       </c>
       <c r="D137" s="3">
         <v>1.2</v>
@@ -6297,10 +6321,10 @@
         <v>0.5</v>
       </c>
       <c r="I137" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K137" t="str">
-        <v>SBC Power Module</v>
+        <v>SBC Knuckle Joint</v>
       </c>
       <c r="L137" t="str">
         <f>VLOOKUP(K137,Table1[[Tool Name]:[Picture]],8,FALSE)</f>
@@ -6309,13 +6333,13 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B138" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D138" s="3">
         <v>2.5</v>
@@ -6334,34 +6358,34 @@
         <v>2</v>
       </c>
       <c r="I138" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K138" t="str">
-        <v>3' Titan Sinker Bar</v>
+        <v>SBC Power Module</v>
       </c>
       <c r="L138" t="str">
         <f>VLOOKUP(K138,Table1[[Tool Name]:[Picture]],8,FALSE)</f>
-        <v>Yes</v>
+        <v>No</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B139" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D139" s="3">
         <v>2.5</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G139" s="4">
         <f>5/12</f>
@@ -6371,10 +6395,10 @@
         <v>2</v>
       </c>
       <c r="I139" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K139" t="str">
-        <v>5' Titan Sinker Bar</v>
+        <v>3' Titan Sinker Bar</v>
       </c>
       <c r="L139" t="str">
         <f>VLOOKUP(K139,Table1[[Tool Name]:[Picture]],8,FALSE)</f>
@@ -6383,7 +6407,7 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B140" t="s">
         <v>112</v>
@@ -6395,10 +6419,10 @@
         <v>1.875</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G140" s="4">
         <v>1</v>
@@ -6407,10 +6431,10 @@
         <v>4.7</v>
       </c>
       <c r="I140" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K140" t="str">
-        <v>7' Titan Sinker Bar</v>
+        <v>5' Titan Sinker Bar</v>
       </c>
       <c r="L140" t="str">
         <f>VLOOKUP(K140,Table1[[Tool Name]:[Picture]],8,FALSE)</f>
@@ -6419,7 +6443,7 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B141" t="s">
         <v>112</v>
@@ -6431,10 +6455,10 @@
         <v>1.5</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G141" s="4">
         <v>1</v>
@@ -6443,10 +6467,10 @@
         <v>4.7</v>
       </c>
       <c r="I141" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K141" t="str">
-        <v>X-Over (Sondex Pin to GO Box)</v>
+        <v>7' Titan Sinker Bar</v>
       </c>
       <c r="L141" t="str">
         <f>VLOOKUP(K141,Table1[[Tool Name]:[Picture]],8,FALSE)</f>
@@ -6455,7 +6479,7 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B142" t="s">
         <v>112</v>
@@ -6467,10 +6491,10 @@
         <v>1.25</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G142" s="4">
         <v>1</v>
@@ -6479,10 +6503,10 @@
         <v>4.7</v>
       </c>
       <c r="I142" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K142" t="str">
-        <v>X-Over (GO to Sondex)</v>
+        <v>X-Over (Sondex Pin to GO Box)</v>
       </c>
       <c r="L142" t="str">
         <f>VLOOKUP(K142,Table1[[Tool Name]:[Picture]],8,FALSE)</f>
@@ -6491,7 +6515,7 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B143" t="s">
         <v>27</v>
@@ -6515,10 +6539,10 @@
         <v>20</v>
       </c>
       <c r="I143" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K143" t="str">
-        <v>Titan Swivel</v>
+        <v>X-Over (GO to Sondex)</v>
       </c>
       <c r="L143" t="str">
         <f>VLOOKUP(K143,Table1[[Tool Name]:[Picture]],8,FALSE)</f>
@@ -6527,7 +6551,7 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B144" t="s">
         <v>27</v>
@@ -6551,10 +6575,10 @@
         <v>20</v>
       </c>
       <c r="I144" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K144" t="str">
-        <v>Titan Knuckle Joint</v>
+        <v>Titan Swivel</v>
       </c>
       <c r="L144" t="str">
         <f>VLOOKUP(K144,Table1[[Tool Name]:[Picture]],8,FALSE)</f>
@@ -6563,7 +6587,7 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B145" t="s">
         <v>27</v>
@@ -6587,19 +6611,19 @@
         <v>18</v>
       </c>
       <c r="I145" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K145" t="str">
-        <v>Trigger Tool</v>
+        <v>Titan Knuckle Joint</v>
       </c>
       <c r="L145" t="str">
         <f>VLOOKUP(K145,Table1[[Tool Name]:[Picture]],8,FALSE)</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B146" t="s">
         <v>27</v>
@@ -6623,10 +6647,10 @@
         <v>15</v>
       </c>
       <c r="I146" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K146" t="str">
-        <v>Spring Centraliser</v>
+        <v>Trigger Tool</v>
       </c>
       <c r="L146" t="str">
         <f>VLOOKUP(K146,Table1[[Tool Name]:[Picture]],8,FALSE)</f>
@@ -6635,22 +6659,22 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B147" t="s">
         <v>28</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D147" s="3">
         <v>1.33</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G147" s="4">
         <v>0.5</v>
@@ -6659,10 +6683,10 @@
         <v>1</v>
       </c>
       <c r="I147" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K147" t="str">
-        <v>Firing Head</v>
+        <v>Spring Centraliser</v>
       </c>
       <c r="L147" t="str">
         <f>VLOOKUP(K147,Table1[[Tool Name]:[Picture]],8,FALSE)</f>
@@ -6671,22 +6695,22 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B148" t="s">
         <v>29</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D148" s="3">
         <v>1.1870000000000001</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G148" s="4">
         <f>4.65/12</f>
@@ -6696,10 +6720,10 @@
         <v>1</v>
       </c>
       <c r="I148" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K148" t="str">
-        <v>Aluminium Shock Sub</v>
+        <v>Firing Head</v>
       </c>
       <c r="L148" t="str">
         <f>VLOOKUP(K148,Table1[[Tool Name]:[Picture]],8,FALSE)</f>
@@ -6708,7 +6732,7 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B149" t="s">
         <v>30</v>
@@ -6724,10 +6748,10 @@
       </c>
       <c r="G149" s="4"/>
       <c r="I149" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K149" t="str">
-        <v>Adapter Sub Cutter</v>
+        <v>Aluminium Shock Sub</v>
       </c>
       <c r="L149" t="str">
         <f>VLOOKUP(K149,Table1[[Tool Name]:[Picture]],8,FALSE)</f>
@@ -6736,13 +6760,13 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B150" t="s">
         <v>31</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E150" s="3" t="s">
         <v>94</v>
@@ -6752,15 +6776,15 @@
       </c>
       <c r="G150" s="4"/>
       <c r="I150" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K150" t="str">
-        <v>ACE Tubing Cutter</v>
+        <v>Adapter Sub Cutter</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B151" t="s">
         <v>32</v>
@@ -6786,15 +6810,15 @@
         <v>35.200000000000003</v>
       </c>
       <c r="I151" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K151" t="str">
-        <v>Paragon II Packer</v>
+        <v>ACE Tubing Cutter</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B152" t="s">
         <v>33</v>
@@ -6820,7 +6844,10 @@
         <v>26.400000000000002</v>
       </c>
       <c r="I152" t="s">
-        <v>276</v>
+        <v>274</v>
+      </c>
+      <c r="K152" t="str">
+        <v>Paragon II Packer</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
@@ -6831,7 +6858,7 @@
         <v>48</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F153" s="3" t="s">
         <v>58</v>
@@ -6844,12 +6871,12 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B154" t="s">
         <v>47</v>
@@ -6871,21 +6898,21 @@
         <v>32.666666666666664</v>
       </c>
       <c r="I154" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B155" t="s">
         <v>35</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F155" s="3" t="s">
         <v>58</v>
@@ -6898,21 +6925,21 @@
         <v>2.5</v>
       </c>
       <c r="I155" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B156" t="s">
         <v>35</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F156" s="3" t="s">
         <v>58</v>
@@ -6925,21 +6952,21 @@
         <v>3.5</v>
       </c>
       <c r="I156" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B157" t="s">
         <v>35</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F157" s="3" t="s">
         <v>58</v>
@@ -6952,21 +6979,21 @@
         <v>4.5</v>
       </c>
       <c r="I157" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B158" t="s">
         <v>35</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F158" s="3" t="s">
         <v>58</v>
@@ -6979,21 +7006,21 @@
         <v>5</v>
       </c>
       <c r="I158" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B159" t="s">
         <v>35</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F159" s="3" t="s">
         <v>58</v>
@@ -7006,21 +7033,21 @@
         <v>5</v>
       </c>
       <c r="I159" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B160" t="s">
         <v>35</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F160" s="3" t="s">
         <v>58</v>
@@ -7033,21 +7060,21 @@
         <v>6.8</v>
       </c>
       <c r="I160" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B161" t="s">
         <v>35</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F161" s="3" t="s">
         <v>58</v>
@@ -7060,21 +7087,21 @@
         <v>9</v>
       </c>
       <c r="I161" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B162" t="s">
         <v>35</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F162" s="3" t="s">
         <v>58</v>
@@ -7087,21 +7114,21 @@
         <v>10</v>
       </c>
       <c r="I162" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B163" t="s">
         <v>35</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F163" s="3" t="s">
         <v>58</v>
@@ -7114,21 +7141,21 @@
         <v>11</v>
       </c>
       <c r="I163" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B164" t="s">
         <v>35</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F164" s="3" t="s">
         <v>58</v>
@@ -7141,21 +7168,21 @@
         <v>12</v>
       </c>
       <c r="I164" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B165" t="s">
         <v>35</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F165" s="3" t="s">
         <v>58</v>
@@ -7168,21 +7195,21 @@
         <v>12</v>
       </c>
       <c r="I165" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B166" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F166" s="3" t="s">
         <v>58</v>
@@ -7195,15 +7222,15 @@
         <v>1.5</v>
       </c>
       <c r="I166" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B167" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>63</v>
@@ -7222,18 +7249,18 @@
         <v>17</v>
       </c>
       <c r="I167" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B168" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D168" s="3">
         <v>2.25</v>
@@ -7249,15 +7276,15 @@
         <v>21</v>
       </c>
       <c r="I168" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B169" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>63</v>
@@ -7277,18 +7304,18 @@
         <v>33</v>
       </c>
       <c r="I169" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B170" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D170" s="3">
         <v>2.25</v>
@@ -7305,7 +7332,7 @@
         <v>46.2</v>
       </c>
       <c r="I170" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
@@ -7316,7 +7343,7 @@
         <v>36</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D171" s="3">
         <v>2</v>
@@ -7331,7 +7358,7 @@
         <v>2</v>
       </c>
       <c r="I171" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
@@ -7342,7 +7369,7 @@
         <v>36</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D172" s="3">
         <v>2.2999999999999998</v>
@@ -7357,7 +7384,7 @@
         <v>2.5</v>
       </c>
       <c r="I172" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
@@ -7368,7 +7395,7 @@
         <v>36</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D173" s="3">
         <v>2.62</v>
@@ -7384,7 +7411,7 @@
         <v>3.5</v>
       </c>
       <c r="I173" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
@@ -7395,7 +7422,7 @@
         <v>36</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D174" s="3">
         <v>2.72</v>
@@ -7411,7 +7438,7 @@
         <v>3.5</v>
       </c>
       <c r="I174" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
@@ -7422,7 +7449,7 @@
         <v>36</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D175" s="3">
         <v>3.3</v>
@@ -7438,7 +7465,7 @@
         <v>6</v>
       </c>
       <c r="I175" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
@@ -7449,7 +7476,7 @@
         <v>36</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D176" s="3">
         <v>3.5</v>
@@ -7465,7 +7492,7 @@
         <v>6</v>
       </c>
       <c r="I176" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
@@ -7476,7 +7503,7 @@
         <v>36</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D177" s="3">
         <v>3.75</v>
@@ -7492,7 +7519,7 @@
         <v>7</v>
       </c>
       <c r="I177" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
@@ -7503,7 +7530,7 @@
         <v>36</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D178" s="3">
         <v>4</v>
@@ -7519,7 +7546,7 @@
         <v>8</v>
       </c>
       <c r="I178" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
@@ -7530,7 +7557,7 @@
         <v>36</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D179" s="3">
         <v>4.25</v>
@@ -7546,7 +7573,7 @@
         <v>8</v>
       </c>
       <c r="I179" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
@@ -7557,7 +7584,7 @@
         <v>36</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D180" s="3">
         <v>4.4000000000000004</v>
@@ -7573,7 +7600,7 @@
         <v>10</v>
       </c>
       <c r="I180" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
@@ -7581,7 +7608,7 @@
         <v>5</v>
       </c>
       <c r="B181" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C181" s="3" t="s">
         <v>62</v>
@@ -7600,7 +7627,7 @@
         <v>22</v>
       </c>
       <c r="I181" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
@@ -7608,7 +7635,7 @@
         <v>5</v>
       </c>
       <c r="B182" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>64</v>
@@ -7627,7 +7654,7 @@
         <v>15.400000000000002</v>
       </c>
       <c r="I182" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
@@ -7635,10 +7662,10 @@
         <v>5</v>
       </c>
       <c r="B183" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D183" s="3">
         <v>3.7</v>
@@ -7654,7 +7681,7 @@
         <v>9.9</v>
       </c>
       <c r="I183" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
@@ -7662,7 +7689,7 @@
         <v>5</v>
       </c>
       <c r="B184" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>64</v>
@@ -7682,7 +7709,7 @@
         <v>22</v>
       </c>
       <c r="I184" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
@@ -7690,10 +7717,10 @@
         <v>5</v>
       </c>
       <c r="B185" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D185" s="3">
         <v>2.25</v>
@@ -7710,7 +7737,7 @@
         <v>15.400000000000002</v>
       </c>
       <c r="I185" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
@@ -7718,7 +7745,7 @@
         <v>5</v>
       </c>
       <c r="B186" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C186" s="3" t="s">
         <v>63</v>
@@ -7738,7 +7765,7 @@
         <v>9.9</v>
       </c>
       <c r="I186" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
@@ -7765,7 +7792,7 @@
         <v>20.166666666666668</v>
       </c>
       <c r="I187" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
@@ -7792,15 +7819,15 @@
         <v>13.5</v>
       </c>
       <c r="I188" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B189" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>64</v>
@@ -7818,51 +7845,51 @@
         <v>13.5</v>
       </c>
       <c r="I189" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B190" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F190" s="3" t="s">
         <v>58</v>
       </c>
       <c r="G190" s="4"/>
       <c r="I190" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
+        <v>123</v>
+      </c>
+      <c r="B191" t="s">
         <v>125</v>
       </c>
-      <c r="B191" t="s">
-        <v>127</v>
-      </c>
       <c r="C191" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F191" s="3" t="s">
         <v>58</v>
       </c>
       <c r="G191" s="4"/>
       <c r="I191" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B192" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>64</v>
@@ -7880,18 +7907,18 @@
         <v>15</v>
       </c>
       <c r="I192" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B193" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D193" s="3">
         <v>2.1880000000000002</v>
@@ -7906,15 +7933,15 @@
         <v>15</v>
       </c>
       <c r="I193" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B194" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>63</v>
@@ -7932,18 +7959,18 @@
         <v>15</v>
       </c>
       <c r="I194" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B195" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D195" s="3">
         <v>2.2749999999999999</v>
@@ -7957,15 +7984,15 @@
         <v>0</v>
       </c>
       <c r="I195" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B196" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>63</v>
@@ -7983,15 +8010,15 @@
         <v>15</v>
       </c>
       <c r="I196" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B197" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>65</v>
@@ -8010,15 +8037,15 @@
         <v>42.202501333333338</v>
       </c>
       <c r="I197" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B198" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>97</v>
@@ -8037,15 +8064,15 @@
         <v>40.333333333333336</v>
       </c>
       <c r="I198" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B199" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>66</v>
@@ -8064,15 +8091,15 @@
         <v>28.533168000000003</v>
       </c>
       <c r="I199" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B200" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>67</v>
@@ -8091,15 +8118,15 @@
         <v>18.75</v>
       </c>
       <c r="I200" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B201" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C201" s="3" t="s">
         <v>65</v>
@@ -8118,15 +8145,15 @@
         <v>42.202501333333338</v>
       </c>
       <c r="I201" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B202" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C202" s="3" t="s">
         <v>97</v>
@@ -8145,15 +8172,15 @@
         <v>40.333333333333336</v>
       </c>
       <c r="I202" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B203" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>66</v>
@@ -8172,15 +8199,15 @@
         <v>28.533168000000003</v>
       </c>
       <c r="I203" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B204" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C204" s="3" t="s">
         <v>67</v>
@@ -8199,15 +8226,15 @@
         <v>18.75</v>
       </c>
       <c r="I204" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B205" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C205" s="3" t="s">
         <v>65</v>
@@ -8226,15 +8253,15 @@
         <v>42.202501333333338</v>
       </c>
       <c r="I205" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B206" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>97</v>
@@ -8253,15 +8280,15 @@
         <v>40.333333333333336</v>
       </c>
       <c r="I206" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B207" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>66</v>
@@ -8280,15 +8307,15 @@
         <v>28.533168000000003</v>
       </c>
       <c r="I207" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B208" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>67</v>
@@ -8307,15 +8334,15 @@
         <v>18.75</v>
       </c>
       <c r="I208" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B209" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C209" s="3" t="s">
         <v>65</v>
@@ -8334,15 +8361,15 @@
         <v>42.202501333333338</v>
       </c>
       <c r="I209" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B210" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>97</v>
@@ -8361,15 +8388,15 @@
         <v>40.333333333333336</v>
       </c>
       <c r="I210" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B211" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>66</v>
@@ -8388,15 +8415,15 @@
         <v>28.533168000000003</v>
       </c>
       <c r="I211" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B212" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C212" s="3" t="s">
         <v>67</v>
@@ -8415,36 +8442,36 @@
         <v>18.75</v>
       </c>
       <c r="I212" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B213" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F213" s="3" t="s">
         <v>58</v>
       </c>
       <c r="G213" s="4"/>
       <c r="I213" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B214" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F214" s="3" t="s">
         <v>58</v>
@@ -8455,15 +8482,15 @@
         <v>0</v>
       </c>
       <c r="I214" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B215" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C215" s="3" t="s">
         <v>100</v>
@@ -8476,15 +8503,15 @@
       </c>
       <c r="G215" s="4"/>
       <c r="I215" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
+        <v>128</v>
+      </c>
+      <c r="B216" t="s">
         <v>130</v>
-      </c>
-      <c r="B216" t="s">
-        <v>132</v>
       </c>
       <c r="C216" s="3" t="s">
         <v>100</v>
@@ -8497,15 +8524,15 @@
       </c>
       <c r="G216" s="4"/>
       <c r="I216" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B217" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C217" s="3" t="s">
         <v>99</v>
@@ -8518,7 +8545,7 @@
       </c>
       <c r="G217" s="4"/>
       <c r="I217" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
@@ -8526,7 +8553,7 @@
         <v>5</v>
       </c>
       <c r="B218" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C218" s="3" t="s">
         <v>64</v>
@@ -8545,7 +8572,7 @@
         <v>39.458133333333343</v>
       </c>
       <c r="I218" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
@@ -8553,10 +8580,10 @@
         <v>5</v>
       </c>
       <c r="B219" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D219" s="3">
         <v>2.2799999999999998</v>
@@ -8572,7 +8599,7 @@
         <v>27.724799999999998</v>
       </c>
       <c r="I219" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
@@ -8580,7 +8607,7 @@
         <v>5</v>
       </c>
       <c r="B220" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C220" s="3" t="s">
         <v>63</v>
@@ -8599,7 +8626,7 @@
         <v>18.253333333333334</v>
       </c>
       <c r="I220" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
@@ -8607,7 +8634,7 @@
         <v>5</v>
       </c>
       <c r="B221" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C221" s="3" t="s">
         <v>64</v>
@@ -8626,7 +8653,7 @@
         <v>40.333333333333336</v>
       </c>
       <c r="I221" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
@@ -8634,10 +8661,10 @@
         <v>5</v>
       </c>
       <c r="B222" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D222" s="3">
         <v>2.25</v>
@@ -8653,7 +8680,7 @@
         <v>27</v>
       </c>
       <c r="I222" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
@@ -8661,7 +8688,7 @@
         <v>5</v>
       </c>
       <c r="B223" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C223" s="3" t="s">
         <v>63</v>
@@ -8680,7 +8707,7 @@
         <v>16.333333333333332</v>
       </c>
       <c r="I223" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
@@ -8688,10 +8715,10 @@
         <v>5</v>
       </c>
       <c r="B224" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F224" s="3" t="s">
         <v>58</v>
@@ -8704,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="I224" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
@@ -8715,7 +8742,7 @@
         <v>38</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D225" s="3">
         <v>2.5</v>
@@ -8731,7 +8758,7 @@
         <v>13.227735731092654</v>
       </c>
       <c r="I225" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
@@ -8742,7 +8769,7 @@
         <v>38</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D226" s="3">
         <v>2.7</v>
@@ -8758,7 +8785,7 @@
         <v>13.227735731092654</v>
       </c>
       <c r="I226" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
@@ -8769,7 +8796,7 @@
         <v>38</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D227" s="3">
         <v>2.62</v>
@@ -8785,7 +8812,7 @@
         <v>13.227735731092654</v>
       </c>
       <c r="I227" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
@@ -8796,7 +8823,7 @@
         <v>38</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D228" s="3">
         <v>3</v>
@@ -8812,7 +8839,7 @@
         <v>22.046226218487757</v>
       </c>
       <c r="I228" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
@@ -8823,7 +8850,7 @@
         <v>38</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D229" s="3">
         <v>3.6</v>
@@ -8839,7 +8866,7 @@
         <v>22.046226218487757</v>
       </c>
       <c r="I229" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
@@ -8850,7 +8877,7 @@
         <v>38</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D230" s="3">
         <v>3.6</v>
@@ -8866,7 +8893,7 @@
         <v>22.046226218487757</v>
       </c>
       <c r="I230" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
@@ -8877,7 +8904,7 @@
         <v>38</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D231" s="3">
         <v>4.5</v>
@@ -8893,7 +8920,7 @@
         <v>22.046226218487757</v>
       </c>
       <c r="I231" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
@@ -8904,7 +8931,7 @@
         <v>38</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D232" s="3">
         <v>4.5</v>
@@ -8920,7 +8947,7 @@
         <v>22.046226218487757</v>
       </c>
       <c r="I232" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
@@ -8931,7 +8958,7 @@
         <v>39</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F233" s="3" t="s">
         <v>58</v>
@@ -8944,7 +8971,7 @@
         <v>0</v>
       </c>
       <c r="I233" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
@@ -8955,7 +8982,7 @@
         <v>40</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F234" s="3" t="s">
         <v>58</v>
@@ -8968,7 +8995,7 @@
         <v>0</v>
       </c>
       <c r="I234" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
@@ -8976,10 +9003,10 @@
         <v>5</v>
       </c>
       <c r="B235" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D235" s="3">
         <v>2.62</v>
@@ -8995,7 +9022,7 @@
         <v>5</v>
       </c>
       <c r="I235" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
@@ -9003,10 +9030,10 @@
         <v>5</v>
       </c>
       <c r="B236" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D236" s="3">
         <v>2.72</v>
@@ -9022,7 +9049,7 @@
         <v>5</v>
       </c>
       <c r="I236" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
@@ -9030,10 +9057,10 @@
         <v>5</v>
       </c>
       <c r="B237" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D237" s="3">
         <v>2.78</v>
@@ -9049,7 +9076,7 @@
         <v>5</v>
       </c>
       <c r="I237" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
@@ -9057,10 +9084,10 @@
         <v>5</v>
       </c>
       <c r="B238" t="s">
+        <v>256</v>
+      </c>
+      <c r="C238" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="C238" s="3" t="s">
-        <v>260</v>
       </c>
       <c r="D238" s="3">
         <v>3.1</v>
@@ -9075,7 +9102,7 @@
         <v>7</v>
       </c>
       <c r="I238" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
@@ -9083,10 +9110,10 @@
         <v>5</v>
       </c>
       <c r="B239" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D239" s="3">
         <v>3.75</v>
@@ -9101,7 +9128,7 @@
         <v>11</v>
       </c>
       <c r="I239" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
@@ -9109,10 +9136,10 @@
         <v>5</v>
       </c>
       <c r="B240" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D240" s="3">
         <v>4.0999999999999996</v>
@@ -9127,7 +9154,7 @@
         <v>13</v>
       </c>
       <c r="I240" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
@@ -9135,10 +9162,10 @@
         <v>5</v>
       </c>
       <c r="B241" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D241" s="3">
         <v>4.5</v>
@@ -9153,7 +9180,7 @@
         <v>16</v>
       </c>
       <c r="I241" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
@@ -9164,7 +9191,7 @@
         <v>41</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F242" s="3" t="s">
         <v>58</v>
@@ -9175,7 +9202,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
@@ -9205,7 +9232,7 @@
         <v>5</v>
       </c>
       <c r="I243" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
@@ -9219,7 +9246,7 @@
         <v>61</v>
       </c>
       <c r="D244" s="3">
-        <f t="shared" ref="D244:D276" si="7">1+11/16</f>
+        <f t="shared" ref="D244:D277" si="7">1+11/16</f>
         <v>1.6875</v>
       </c>
       <c r="E244" s="3" t="s">
@@ -9235,7 +9262,7 @@
         <v>7.9</v>
       </c>
       <c r="I244" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
@@ -9243,7 +9270,7 @@
         <v>3</v>
       </c>
       <c r="B245" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C245" s="3" t="s">
         <v>61</v>
@@ -9253,7 +9280,7 @@
         <v>1.6875</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="F245" s="3" t="s">
         <v>69</v>
@@ -9265,7 +9292,7 @@
         <v>12.125</v>
       </c>
       <c r="I245" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
@@ -9296,7 +9323,7 @@
         <v>7.59375</v>
       </c>
       <c r="I246" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
@@ -9314,10 +9341,10 @@
         <v>1.6875</v>
       </c>
       <c r="E247" s="3" t="s">
-        <v>113</v>
+        <v>280</v>
       </c>
       <c r="F247" s="3" t="s">
-        <v>113</v>
+        <v>280</v>
       </c>
       <c r="G247" s="4">
         <v>1</v>
@@ -9327,7 +9354,7 @@
         <v>7.59375</v>
       </c>
       <c r="I247" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
@@ -9358,7 +9385,7 @@
         <v>3.796875</v>
       </c>
       <c r="I248" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
@@ -9376,10 +9403,10 @@
         <v>1.6875</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F249" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G249" s="4">
         <v>1</v>
@@ -9389,7 +9416,7 @@
         <v>7.59375</v>
       </c>
       <c r="I249" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
@@ -9397,7 +9424,7 @@
         <v>4</v>
       </c>
       <c r="B250" t="s">
-        <v>70</v>
+        <v>281</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>61</v>
@@ -9407,19 +9434,20 @@
         <v>1.6875</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F250" s="3" t="s">
         <v>68</v>
       </c>
       <c r="G250" s="4">
-        <v>1.4708333333333332</v>
+        <f>28/12</f>
+        <v>2.3333333333333335</v>
       </c>
       <c r="H250" s="4">
-        <v>5.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I250" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
@@ -9427,7 +9455,7 @@
         <v>4</v>
       </c>
       <c r="B251" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C251" s="3" t="s">
         <v>61</v>
@@ -9437,19 +9465,20 @@
         <v>1.6875</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F251" s="3" t="s">
         <v>68</v>
       </c>
       <c r="G251" s="4">
-        <v>1.925</v>
+        <f>17.65/12</f>
+        <v>1.4708333333333332</v>
       </c>
       <c r="H251" s="4">
-        <v>9.4</v>
+        <v>6.2</v>
       </c>
       <c r="I251" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
@@ -9457,14 +9486,14 @@
         <v>4</v>
       </c>
       <c r="B252" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="D252" s="3">
-        <f>1+3/8</f>
-        <v>1.375</v>
+        <f t="shared" si="7"/>
+        <v>1.6875</v>
       </c>
       <c r="E252" s="3" t="s">
         <v>68</v>
@@ -9473,14 +9502,13 @@
         <v>68</v>
       </c>
       <c r="G252" s="4">
-        <f>19.7/12</f>
-        <v>1.6416666666666666</v>
+        <v>1.925</v>
       </c>
       <c r="H252" s="4">
-        <v>5.0999999999999996</v>
+        <v>9.4</v>
       </c>
       <c r="I252" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
@@ -9488,14 +9516,14 @@
         <v>4</v>
       </c>
       <c r="B253" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="D253" s="3">
-        <f t="shared" si="7"/>
-        <v>1.6875</v>
+        <f>1+3/8</f>
+        <v>1.375</v>
       </c>
       <c r="E253" s="3" t="s">
         <v>68</v>
@@ -9504,14 +9532,14 @@
         <v>68</v>
       </c>
       <c r="G253" s="4">
-        <f>23.1/12</f>
-        <v>1.925</v>
+        <f>19.7/12</f>
+        <v>1.6416666666666666</v>
       </c>
       <c r="H253" s="4">
-        <v>9.4</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="I253" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
@@ -9519,7 +9547,7 @@
         <v>4</v>
       </c>
       <c r="B254" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>61</v>
@@ -9535,14 +9563,14 @@
         <v>68</v>
       </c>
       <c r="G254" s="4">
-        <f>22.97/12</f>
-        <v>1.9141666666666666</v>
+        <f>23.1/12</f>
+        <v>1.925</v>
       </c>
       <c r="H254" s="4">
-        <v>7</v>
+        <v>9.4</v>
       </c>
       <c r="I254" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
@@ -9550,7 +9578,7 @@
         <v>4</v>
       </c>
       <c r="B255" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>61</v>
@@ -9566,13 +9594,14 @@
         <v>68</v>
       </c>
       <c r="G255" s="4">
-        <v>5.3833333333333329</v>
+        <f>22.97/12</f>
+        <v>1.9141666666666666</v>
       </c>
       <c r="H255" s="4">
-        <v>20.7</v>
+        <v>7</v>
       </c>
       <c r="I255" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
@@ -9580,7 +9609,7 @@
         <v>4</v>
       </c>
       <c r="B256" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C256" s="3" t="s">
         <v>61</v>
@@ -9602,7 +9631,7 @@
         <v>20.7</v>
       </c>
       <c r="I256" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
@@ -9613,10 +9642,11 @@
         <v>116</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="D257" s="3">
-        <v>2.75</v>
+        <f t="shared" si="7"/>
+        <v>1.6875</v>
       </c>
       <c r="E257" s="3" t="s">
         <v>68</v>
@@ -9625,14 +9655,13 @@
         <v>68</v>
       </c>
       <c r="G257" s="4">
-        <f>66/12</f>
-        <v>5.5</v>
+        <v>5.3833333333333329</v>
       </c>
       <c r="H257" s="4">
-        <v>70</v>
+        <v>20.7</v>
       </c>
       <c r="I257" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.25">
@@ -9640,10 +9669,10 @@
         <v>4</v>
       </c>
       <c r="B258" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D258" s="3">
         <v>2.75</v>
@@ -9662,7 +9691,7 @@
         <v>70</v>
       </c>
       <c r="I258" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
@@ -9670,14 +9699,13 @@
         <v>4</v>
       </c>
       <c r="B259" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="D259" s="3">
-        <f t="shared" si="7"/>
-        <v>1.6875</v>
+        <v>2.75</v>
       </c>
       <c r="E259" s="3" t="s">
         <v>68</v>
@@ -9686,13 +9714,14 @@
         <v>68</v>
       </c>
       <c r="G259" s="4">
-        <v>1.0416666666666667</v>
+        <f>66/12</f>
+        <v>5.5</v>
       </c>
       <c r="H259" s="4">
-        <v>5.9</v>
+        <v>70</v>
       </c>
       <c r="I259" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
@@ -9700,7 +9729,7 @@
         <v>4</v>
       </c>
       <c r="B260" t="s">
-        <v>73</v>
+        <v>282</v>
       </c>
       <c r="C260" s="3" t="s">
         <v>61</v>
@@ -9716,13 +9745,14 @@
         <v>68</v>
       </c>
       <c r="G260" s="4">
-        <v>1.5841666666666667</v>
+        <f>25.66/12</f>
+        <v>2.1383333333333332</v>
       </c>
       <c r="H260" s="4">
-        <v>8.8000000000000007</v>
+        <v>10.6</v>
       </c>
       <c r="I260" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
@@ -9730,14 +9760,14 @@
         <v>4</v>
       </c>
       <c r="B261" t="s">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="D261" s="3">
-        <f>1+3/8</f>
-        <v>1.375</v>
+        <f t="shared" si="7"/>
+        <v>1.6875</v>
       </c>
       <c r="E261" s="3" t="s">
         <v>68</v>
@@ -9746,14 +9776,13 @@
         <v>68</v>
       </c>
       <c r="G261" s="4">
-        <f>17.8/12</f>
-        <v>1.4833333333333334</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="H261" s="4">
-        <v>5.2</v>
+        <v>5.9</v>
       </c>
       <c r="I261" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.25">
@@ -9761,7 +9790,7 @@
         <v>4</v>
       </c>
       <c r="B262" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C262" s="3" t="s">
         <v>61</v>
@@ -9777,14 +9806,13 @@
         <v>68</v>
       </c>
       <c r="G262" s="4">
-        <f>19.01/12</f>
         <v>1.5841666666666667</v>
       </c>
       <c r="H262" s="4">
         <v>8.8000000000000007</v>
       </c>
       <c r="I262" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
@@ -9792,14 +9820,14 @@
         <v>4</v>
       </c>
       <c r="B263" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="D263" s="3">
-        <f t="shared" si="7"/>
-        <v>1.6875</v>
+        <f>1+3/8</f>
+        <v>1.375</v>
       </c>
       <c r="E263" s="3" t="s">
         <v>68</v>
@@ -9808,13 +9836,14 @@
         <v>68</v>
       </c>
       <c r="G263" s="4">
-        <v>0.56666666666666665</v>
+        <f>17.8/12</f>
+        <v>1.4833333333333334</v>
       </c>
       <c r="H263" s="4">
-        <v>3.5</v>
+        <v>5.2</v>
       </c>
       <c r="I263" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
@@ -9822,7 +9851,7 @@
         <v>4</v>
       </c>
       <c r="B264" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C264" s="3" t="s">
         <v>61</v>
@@ -9838,13 +9867,14 @@
         <v>68</v>
       </c>
       <c r="G264" s="4">
-        <v>1.4416666666666667</v>
+        <f>19.01/12</f>
+        <v>1.5841666666666667</v>
       </c>
       <c r="H264" s="4">
-        <v>6.5</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="I264" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
@@ -9852,14 +9882,14 @@
         <v>4</v>
       </c>
       <c r="B265" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="D265" s="3">
-        <f>2+1/8</f>
-        <v>2.125</v>
+        <f t="shared" si="7"/>
+        <v>1.6875</v>
       </c>
       <c r="E265" s="3" t="s">
         <v>68</v>
@@ -9868,13 +9898,13 @@
         <v>68</v>
       </c>
       <c r="G265" s="4">
-        <v>1.4416666666666667</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="H265" s="4">
-        <v>6.8</v>
+        <v>3.5</v>
       </c>
       <c r="I265" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
@@ -9882,14 +9912,14 @@
         <v>4</v>
       </c>
       <c r="B266" t="s">
-        <v>166</v>
+        <v>75</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="D266" s="3">
-        <f>2+1/8</f>
-        <v>2.125</v>
+        <f t="shared" si="7"/>
+        <v>1.6875</v>
       </c>
       <c r="E266" s="3" t="s">
         <v>68</v>
@@ -9898,14 +9928,13 @@
         <v>68</v>
       </c>
       <c r="G266" s="4">
-        <f>45.5/12</f>
-        <v>3.7916666666666665</v>
+        <v>1.4416666666666667</v>
       </c>
       <c r="H266" s="4">
-        <v>14.3</v>
+        <v>6.5</v>
       </c>
       <c r="I266" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
@@ -9913,14 +9942,14 @@
         <v>4</v>
       </c>
       <c r="B267" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="D267" s="3">
-        <f t="shared" si="7"/>
-        <v>1.6875</v>
+        <f>2+1/8</f>
+        <v>2.125</v>
       </c>
       <c r="E267" s="3" t="s">
         <v>68</v>
@@ -9929,13 +9958,13 @@
         <v>68</v>
       </c>
       <c r="G267" s="4">
-        <v>1.9166666666666667</v>
+        <v>1.4416666666666667</v>
       </c>
       <c r="H267" s="4">
-        <v>9.6</v>
+        <v>6.8</v>
       </c>
       <c r="I267" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
@@ -9943,29 +9972,30 @@
         <v>4</v>
       </c>
       <c r="B268" t="s">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="D268" s="3">
-        <f t="shared" si="7"/>
-        <v>1.6875</v>
+        <f>2+1/8</f>
+        <v>2.125</v>
       </c>
       <c r="E268" s="3" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F268" s="3" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="G268" s="4">
-        <v>1.5416666666666667</v>
+        <f>45.5/12</f>
+        <v>3.7916666666666665</v>
       </c>
       <c r="H268" s="4">
-        <v>5.4</v>
+        <v>14.3</v>
       </c>
       <c r="I268" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
@@ -9973,7 +10003,7 @@
         <v>4</v>
       </c>
       <c r="B269" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>61</v>
@@ -9982,17 +10012,20 @@
         <f t="shared" si="7"/>
         <v>1.6875</v>
       </c>
+      <c r="E269" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="F269" s="3" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="G269" s="4">
-        <v>0.75</v>
+        <v>1.9166666666666667</v>
       </c>
       <c r="H269" s="4">
-        <v>2.2000000000000002</v>
+        <v>9.6</v>
       </c>
       <c r="I269" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
@@ -10000,7 +10033,7 @@
         <v>4</v>
       </c>
       <c r="B270" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="C270" s="3" t="s">
         <v>61</v>
@@ -10009,18 +10042,20 @@
         <f t="shared" si="7"/>
         <v>1.6875</v>
       </c>
+      <c r="E270" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="F270" s="3" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="G270" s="4">
-        <f>8/12</f>
-        <v>0.66666666666666663</v>
+        <v>1.5416666666666667</v>
       </c>
       <c r="H270" s="4">
-        <v>1.7</v>
+        <v>5.4</v>
       </c>
       <c r="I270" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
@@ -10028,7 +10063,7 @@
         <v>4</v>
       </c>
       <c r="B271" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="C271" s="3" t="s">
         <v>61</v>
@@ -10037,17 +10072,20 @@
         <f t="shared" si="7"/>
         <v>1.6875</v>
       </c>
+      <c r="E271" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="F271" s="3" t="s">
         <v>58</v>
       </c>
       <c r="G271" s="4">
-        <v>2.91</v>
+        <v>0.75</v>
       </c>
       <c r="H271" s="4">
-        <v>10</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I271" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
@@ -10055,7 +10093,7 @@
         <v>4</v>
       </c>
       <c r="B272" t="s">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="C272" s="3" t="s">
         <v>61</v>
@@ -10064,17 +10102,21 @@
         <f t="shared" si="7"/>
         <v>1.6875</v>
       </c>
+      <c r="E272" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="F272" s="3" t="s">
         <v>58</v>
       </c>
       <c r="G272" s="4">
-        <v>2.91</v>
+        <f>8/12</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H272" s="4">
-        <v>10</v>
+        <v>1.7</v>
       </c>
       <c r="I272" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
@@ -10082,7 +10124,7 @@
         <v>4</v>
       </c>
       <c r="B273" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>61</v>
@@ -10091,17 +10133,21 @@
         <f t="shared" si="7"/>
         <v>1.6875</v>
       </c>
+      <c r="E273" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="F273" s="3" t="s">
         <v>58</v>
       </c>
       <c r="G273" s="4">
-        <v>0.1</v>
+        <f>23.52/12</f>
+        <v>1.96</v>
       </c>
       <c r="H273" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I273" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
@@ -10109,7 +10155,7 @@
         <v>4</v>
       </c>
       <c r="B274" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C274" s="3" t="s">
         <v>61</v>
@@ -10119,10 +10165,10 @@
         <v>1.6875</v>
       </c>
       <c r="E274" s="3" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F274" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G274" s="4">
         <v>0.1</v>
@@ -10131,7 +10177,7 @@
         <v>1</v>
       </c>
       <c r="I274" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
@@ -10139,7 +10185,7 @@
         <v>4</v>
       </c>
       <c r="B275" t="s">
-        <v>168</v>
+        <v>86</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>61</v>
@@ -10152,17 +10198,16 @@
         <v>68</v>
       </c>
       <c r="F275" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="G275" s="4">
-        <f>3.065/12</f>
-        <v>0.25541666666666668</v>
+        <v>0.1</v>
       </c>
       <c r="H275" s="4">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="I275" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
@@ -10170,7 +10215,7 @@
         <v>4</v>
       </c>
       <c r="B276" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C276" s="3" t="s">
         <v>61</v>
@@ -10186,115 +10231,117 @@
         <v>68</v>
       </c>
       <c r="G276" s="4">
+        <f>3.065/12</f>
+        <v>0.25541666666666668</v>
+      </c>
+      <c r="H276" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="I276" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>4</v>
+      </c>
+      <c r="B277" t="s">
+        <v>165</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D277" s="3">
+        <f t="shared" si="7"/>
+        <v>1.6875</v>
+      </c>
+      <c r="E277" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F277" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G277" s="4">
         <f>51.4/12</f>
         <v>4.2833333333333332</v>
       </c>
-      <c r="H276" s="4">
+      <c r="H277" s="4">
         <v>16.2</v>
       </c>
-      <c r="I276" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
-        <v>134</v>
-      </c>
-      <c r="B277" t="s">
-        <v>232</v>
-      </c>
-      <c r="C277" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D277" s="3">
-        <v>2.125</v>
-      </c>
-      <c r="E277" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F277" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G277" s="4">
-        <v>4.2300000000000004</v>
-      </c>
-      <c r="H277" s="4">
-        <v>34</v>
-      </c>
       <c r="I277" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B278" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="D278" s="3">
-        <v>2.5</v>
+        <v>2.125</v>
       </c>
       <c r="E278" s="3" t="s">
-        <v>234</v>
+        <v>280</v>
       </c>
       <c r="F278" s="3" t="s">
-        <v>234</v>
+        <v>280</v>
       </c>
       <c r="G278" s="4">
-        <v>0.82</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="H278" s="4">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="I278" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="B279" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D279" s="3">
         <v>2.5</v>
       </c>
       <c r="E279" s="3" t="s">
-        <v>58</v>
+        <v>232</v>
       </c>
       <c r="F279" s="3" t="s">
-        <v>58</v>
+        <v>232</v>
       </c>
       <c r="G279" s="4">
-        <v>1.02</v>
+        <v>0.82</v>
       </c>
       <c r="H279" s="4">
         <v>2</v>
       </c>
       <c r="I279" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B280" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>236</v>
+        <v>169</v>
       </c>
       <c r="D280" s="3">
-        <v>2.16</v>
+        <v>2.5</v>
       </c>
       <c r="E280" s="3" t="s">
         <v>58</v>
@@ -10303,110 +10350,109 @@
         <v>58</v>
       </c>
       <c r="G280" s="4">
-        <v>0.75</v>
+        <v>1.02</v>
       </c>
       <c r="H280" s="4">
         <v>2</v>
       </c>
       <c r="I280" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="B281" t="s">
         <v>233</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D281" s="3">
         <v>2.16</v>
       </c>
       <c r="E281" s="3" t="s">
-        <v>234</v>
+        <v>58</v>
       </c>
       <c r="F281" s="3" t="s">
-        <v>234</v>
+        <v>58</v>
       </c>
       <c r="G281" s="4">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="H281" s="4">
-        <v>2.774</v>
+        <v>2</v>
       </c>
       <c r="I281" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B282" t="s">
-        <v>135</v>
+        <v>231</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>61</v>
+        <v>234</v>
       </c>
       <c r="D282" s="3">
-        <f t="shared" ref="D282:D285" si="8">1+11/16</f>
-        <v>1.6875</v>
+        <v>2.16</v>
       </c>
       <c r="E282" s="3" t="s">
-        <v>113</v>
+        <v>232</v>
       </c>
       <c r="F282" s="3" t="s">
-        <v>113</v>
+        <v>232</v>
       </c>
       <c r="G282" s="4">
-        <v>3.17</v>
+        <v>0.82</v>
       </c>
       <c r="H282" s="4">
-        <v>13.23</v>
+        <v>2.774</v>
       </c>
       <c r="I282" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B283" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C283" s="3" t="s">
         <v>61</v>
       </c>
       <c r="D283" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="D283:D286" si="8">1+11/16</f>
         <v>1.6875</v>
       </c>
       <c r="E283" s="3" t="s">
-        <v>113</v>
+        <v>280</v>
       </c>
       <c r="F283" s="3" t="s">
-        <v>113</v>
+        <v>280</v>
       </c>
       <c r="G283" s="4">
-        <v>1.22</v>
+        <v>3.17</v>
       </c>
       <c r="H283" s="4">
-        <v>3.97</v>
+        <v>13.23</v>
       </c>
       <c r="I283" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B284" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>61</v>
@@ -10416,27 +10462,27 @@
         <v>1.6875</v>
       </c>
       <c r="E284" s="3" t="s">
-        <v>113</v>
+        <v>280</v>
       </c>
       <c r="F284" s="3" t="s">
-        <v>113</v>
+        <v>280</v>
       </c>
       <c r="G284" s="4">
-        <v>2.23</v>
+        <v>1.22</v>
       </c>
       <c r="H284" s="4">
-        <v>10.36</v>
+        <v>3.97</v>
       </c>
       <c r="I284" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B285" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C285" s="3" t="s">
         <v>61</v>
@@ -10446,374 +10492,380 @@
         <v>1.6875</v>
       </c>
       <c r="E285" s="3" t="s">
-        <v>113</v>
+        <v>280</v>
       </c>
       <c r="F285" s="3" t="s">
-        <v>113</v>
+        <v>280</v>
       </c>
       <c r="G285" s="4">
-        <v>1.35</v>
+        <v>2.23</v>
       </c>
       <c r="H285" s="4">
-        <v>6.17</v>
+        <v>10.36</v>
       </c>
       <c r="I285" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B286" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C286" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D286" s="3">
+        <f t="shared" si="8"/>
+        <v>1.6875</v>
+      </c>
+      <c r="E286" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F286" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G286" s="4">
+        <v>1.35</v>
+      </c>
+      <c r="H286" s="4">
+        <v>6.17</v>
+      </c>
+      <c r="I286" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>140</v>
+      </c>
+      <c r="B287" t="s">
+        <v>137</v>
+      </c>
+      <c r="C287" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D286" s="3">
+      <c r="D287" s="3">
         <f>2+1/8</f>
         <v>2.125</v>
       </c>
-      <c r="E286" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F286" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G286" s="4">
+      <c r="E287" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F287" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G287" s="4">
         <v>3.01</v>
       </c>
-      <c r="H286" s="4">
+      <c r="H287" s="4">
         <v>24.03</v>
       </c>
-      <c r="I286" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
-        <v>142</v>
-      </c>
-      <c r="B287" t="s">
+      <c r="I287" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
         <v>140</v>
       </c>
-      <c r="C287" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D287" s="3">
+      <c r="B288" t="s">
+        <v>138</v>
+      </c>
+      <c r="C288" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D288" s="3">
         <f>3+1/8</f>
         <v>3.125</v>
       </c>
-      <c r="E287" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F287" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G287" s="4">
+      <c r="E288" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F288" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G288" s="4">
         <v>9.09</v>
       </c>
-      <c r="H287" s="4">
+      <c r="H288" s="4">
         <v>105.82</v>
       </c>
-      <c r="I287" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
-        <v>142</v>
-      </c>
-      <c r="B288" t="s">
-        <v>141</v>
-      </c>
-      <c r="C288" s="3">
+      <c r="I288" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>140</v>
+      </c>
+      <c r="B289" t="s">
+        <v>139</v>
+      </c>
+      <c r="C289" s="3">
         <f>Table1[[#This Row],[OD (Inches)]]</f>
         <v>1.6929133858267713</v>
       </c>
-      <c r="D288" s="3">
+      <c r="D289" s="3">
         <f>CONVERT(0.043,"m","in")</f>
         <v>1.6929133858267713</v>
       </c>
-      <c r="F288" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G288" s="4">
+      <c r="E289" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F289" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G289" s="4">
         <v>0.22</v>
       </c>
-      <c r="H288" s="4">
+      <c r="H289" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I288" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
-        <v>144</v>
-      </c>
-      <c r="B289" t="s">
-        <v>215</v>
-      </c>
-      <c r="C289" s="3" t="s">
+      <c r="I289" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>142</v>
+      </c>
+      <c r="B290" t="s">
+        <v>213</v>
+      </c>
+      <c r="C290" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D289" s="3">
-        <f t="shared" ref="D289" si="9">1+11/16</f>
+      <c r="D290" s="3">
+        <f t="shared" ref="D290" si="9">1+11/16</f>
         <v>1.6875</v>
       </c>
-      <c r="F289" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G289" s="4">
+      <c r="F290" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G290" s="4">
         <f>172.99/12</f>
         <v>14.415833333333333</v>
       </c>
-      <c r="H289" s="4">
+      <c r="H290" s="4">
         <v>83.55</v>
       </c>
-      <c r="I289" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
-        <v>147</v>
-      </c>
-      <c r="B290" t="s">
-        <v>257</v>
-      </c>
-      <c r="C290" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D290" s="3">
-        <v>1.6539999999999999</v>
-      </c>
-      <c r="E290" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="F290" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="G290" s="4">
-        <v>5.3</v>
-      </c>
-      <c r="H290" s="4">
-        <v>28.66</v>
-      </c>
       <c r="I290" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B291" t="s">
-        <v>149</v>
+        <v>255</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D291" s="3">
         <v>1.6539999999999999</v>
       </c>
       <c r="E291" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F291" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G291" s="4">
-        <v>2.1</v>
+        <v>5.3</v>
       </c>
       <c r="H291" s="4">
-        <v>8.3780000000000001</v>
+        <v>28.66</v>
       </c>
       <c r="I291" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
+        <v>145</v>
+      </c>
+      <c r="B292" t="s">
         <v>147</v>
       </c>
-      <c r="B292" t="s">
-        <v>150</v>
-      </c>
       <c r="C292" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D292" s="3">
         <v>1.6539999999999999</v>
       </c>
+      <c r="E292" s="3" t="s">
+        <v>267</v>
+      </c>
       <c r="F292" s="3" t="s">
-        <v>58</v>
+        <v>267</v>
       </c>
       <c r="G292" s="4">
-        <v>0.13</v>
+        <v>2.1</v>
       </c>
       <c r="H292" s="4">
-        <v>1.323</v>
+        <v>8.3780000000000001</v>
       </c>
       <c r="I292" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B293" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D293" s="3">
         <v>1.6539999999999999</v>
       </c>
       <c r="E293" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F293" s="3" t="s">
-        <v>269</v>
+        <v>58</v>
       </c>
       <c r="G293" s="4">
-        <v>1.36</v>
+        <v>0.13</v>
       </c>
       <c r="H293" s="4">
-        <v>2.2050000000000001</v>
+        <v>1.323</v>
       </c>
       <c r="I293" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B294" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D294" s="3">
         <v>1.6539999999999999</v>
       </c>
       <c r="E294" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F294" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G294" s="4">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H294" s="4">
-        <v>7.0549999999999997</v>
+        <v>2.2050000000000001</v>
       </c>
       <c r="I294" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B295" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D295" s="3">
         <v>1.6539999999999999</v>
       </c>
       <c r="E295" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F295" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G295" s="4">
-        <v>6.56</v>
+        <v>1.33</v>
       </c>
       <c r="H295" s="4">
-        <v>14.992000000000001</v>
+        <v>7.0549999999999997</v>
       </c>
       <c r="I295" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="B296" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>61</v>
+        <v>146</v>
       </c>
       <c r="D296" s="3">
-        <f t="shared" ref="D296:D302" si="10">1+11/16</f>
-        <v>1.6875</v>
+        <v>1.6539999999999999</v>
       </c>
       <c r="E296" s="3" t="s">
-        <v>113</v>
+        <v>267</v>
       </c>
       <c r="F296" s="3" t="s">
-        <v>113</v>
+        <v>267</v>
       </c>
       <c r="G296" s="4">
-        <v>3</v>
+        <v>6.56</v>
       </c>
       <c r="H296" s="4">
-        <v>21</v>
+        <v>14.992000000000001</v>
       </c>
       <c r="I296" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B297" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C297" s="3" t="s">
         <v>61</v>
       </c>
       <c r="D297" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="D297:D303" si="10">1+11/16</f>
         <v>1.6875</v>
       </c>
       <c r="E297" s="3" t="s">
-        <v>113</v>
+        <v>280</v>
       </c>
       <c r="F297" s="3" t="s">
-        <v>113</v>
+        <v>280</v>
       </c>
       <c r="G297" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H297" s="4">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I297" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B298" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C298" s="3" t="s">
         <v>61</v>
@@ -10823,27 +10875,27 @@
         <v>1.6875</v>
       </c>
       <c r="E298" s="3" t="s">
-        <v>113</v>
+        <v>280</v>
       </c>
       <c r="F298" s="3" t="s">
-        <v>113</v>
+        <v>280</v>
       </c>
       <c r="G298" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H298" s="4">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="I298" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B299" t="s">
-        <v>268</v>
+        <v>111</v>
       </c>
       <c r="C299" s="3" t="s">
         <v>61</v>
@@ -10853,28 +10905,27 @@
         <v>1.6875</v>
       </c>
       <c r="E299" s="3" t="s">
-        <v>68</v>
+        <v>280</v>
       </c>
       <c r="F299" s="3" t="s">
-        <v>68</v>
+        <v>280</v>
       </c>
       <c r="G299" s="4">
-        <f>4.75/12</f>
-        <v>0.39583333333333331</v>
+        <v>7</v>
       </c>
       <c r="H299" s="4">
-        <v>1.75</v>
+        <v>49</v>
       </c>
       <c r="I299" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B300" t="s">
-        <v>224</v>
+        <v>266</v>
       </c>
       <c r="C300" s="3" t="s">
         <v>61</v>
@@ -10884,119 +10935,120 @@
         <v>1.6875</v>
       </c>
       <c r="E300" s="3" t="s">
-        <v>113</v>
+        <v>280</v>
       </c>
       <c r="F300" s="3" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="G300" s="4">
+        <f>4.75/12</f>
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="H300" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="I300" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>122</v>
+      </c>
+      <c r="B301" t="s">
+        <v>222</v>
+      </c>
+      <c r="C301" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D301" s="3">
+        <f t="shared" si="10"/>
+        <v>1.6875</v>
+      </c>
+      <c r="E301" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F301" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G301" s="4">
         <f>3.37/12</f>
         <v>0.28083333333333332</v>
       </c>
-      <c r="H300" s="4">
+      <c r="H301" s="4">
         <v>1.58</v>
       </c>
-      <c r="I300" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
-        <v>124</v>
-      </c>
-      <c r="B301" t="s">
+      <c r="I301" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>122</v>
+      </c>
+      <c r="B302" t="s">
         <v>42</v>
       </c>
-      <c r="C301" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D301" s="3">
+      <c r="C302" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D302" s="3">
         <v>1.75</v>
       </c>
-      <c r="E301" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F301" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G301" s="4">
+      <c r="E302" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F302" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G302" s="4">
         <f>17.33/12</f>
         <v>1.4441666666666666</v>
       </c>
-      <c r="H301" s="4">
+      <c r="H302" s="4">
         <v>11</v>
       </c>
-      <c r="I301" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
-        <v>124</v>
-      </c>
-      <c r="B302" t="s">
+      <c r="I302" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>122</v>
+      </c>
+      <c r="B303" t="s">
         <v>43</v>
       </c>
-      <c r="C302" s="3" t="s">
+      <c r="C303" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D302" s="3">
+      <c r="D303" s="3">
         <f t="shared" si="10"/>
         <v>1.6875</v>
       </c>
-      <c r="E302" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F302" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G302" s="4">
+      <c r="E303" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F303" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G303" s="4">
         <f>7.9/12</f>
         <v>0.65833333333333333</v>
       </c>
-      <c r="H302" s="4">
+      <c r="H303" s="4">
         <v>4</v>
       </c>
-      <c r="I302" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
-        <v>145</v>
-      </c>
-      <c r="B303" t="s">
-        <v>237</v>
-      </c>
-      <c r="C303" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D303" s="3">
-        <f>1+11/16</f>
-        <v>1.6875</v>
-      </c>
-      <c r="E303" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="F303" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="G303" s="4">
-        <v>4.82</v>
-      </c>
-      <c r="H303" s="4">
-        <v>24</v>
-      </c>
       <c r="I303" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B304" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C304" s="3" t="s">
         <v>61</v>
@@ -11006,56 +11058,57 @@
         <v>1.6875</v>
       </c>
       <c r="E304" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F304" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G304" s="4">
-        <v>2.89</v>
+        <v>4.82</v>
       </c>
       <c r="H304" s="4">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="I304" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B305" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D305" s="3">
-        <v>1.5</v>
+        <f>1+11/16</f>
+        <v>1.6875</v>
       </c>
       <c r="E305" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F305" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G305" s="4">
-        <v>0.23</v>
+        <v>2.89</v>
       </c>
       <c r="H305" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I305" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B306" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C306" s="3" t="s">
         <v>52</v>
@@ -11064,27 +11117,27 @@
         <v>1.5</v>
       </c>
       <c r="E306" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F306" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G306" s="4">
-        <v>1.17</v>
+        <v>0.23</v>
       </c>
       <c r="H306" s="4">
         <v>1</v>
       </c>
       <c r="I306" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B307" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C307" s="3" t="s">
         <v>52</v>
@@ -11093,65 +11146,65 @@
         <v>1.5</v>
       </c>
       <c r="E307" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F307" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G307" s="4">
-        <v>0.18</v>
+        <v>1.17</v>
       </c>
       <c r="H307" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I307" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B308" t="s">
+        <v>239</v>
+      </c>
+      <c r="C308" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D308" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E308" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="C308" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D308" s="3">
-        <v>2.0619999999999998</v>
-      </c>
-      <c r="E308" s="3" t="s">
-        <v>244</v>
-      </c>
       <c r="F308" s="3" t="s">
-        <v>58</v>
+        <v>242</v>
       </c>
       <c r="G308" s="4">
-        <v>0.52</v>
+        <v>0.18</v>
       </c>
       <c r="H308" s="4">
         <v>0.5</v>
       </c>
       <c r="I308" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B309" t="s">
+        <v>240</v>
+      </c>
+      <c r="C309" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D309" s="3">
+        <v>2.0619999999999998</v>
+      </c>
+      <c r="E309" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="C309" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="D309" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="E309" s="3" t="s">
-        <v>244</v>
       </c>
       <c r="F309" s="3" t="s">
         <v>58</v>
@@ -11163,18 +11216,50 @@
         <v>0.5</v>
       </c>
       <c r="I309" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>143</v>
+      </c>
+      <c r="B310" t="s">
+        <v>240</v>
+      </c>
+      <c r="C310" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D310" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="E310" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F310" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G310" s="4">
+        <v>0.52</v>
+      </c>
+      <c r="H310" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I310" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>132</v>
+      </c>
+      <c r="B311" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B310" t="s">
-        <v>279</v>
-      </c>
-      <c r="C310" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="G310" s="4"/>
-      <c r="H310" s="4">
+      <c r="C311" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G311" s="4"/>
+      <c r="H311" s="4">
         <f>Table1[[#This Row],[OD (Inches)]]^2*8/3*Table1[[#This Row],[Length (ft)]]</f>
         <v>0</v>
       </c>

--- a/assets/resources/tool_database.xlsx
+++ b/assets/resources/tool_database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deleum-my.sharepoint.com/personal/adam_mohdtaufik_deleum_com/Documents/Documents/ToolStringEditor/assets/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1813" documentId="8_{3731B2D3-2851-4964-AE06-C382F04C3BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B34E248-3E80-42B9-8DD6-7F0FEBB3E50A}"/>
+  <xr:revisionPtr revIDLastSave="1822" documentId="8_{3731B2D3-2851-4964-AE06-C382F04C3BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2353860A-4BE2-4332-B304-7A18231DE0EF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1389,9 +1389,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N311"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A283" zoomScale="84" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A231" zoomScale="84" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I298" sqref="I298"/>
+      <selection pane="topRight" activeCell="E249" sqref="E249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6197,7 +6197,7 @@
         <v>1.875</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F134" s="3" t="s">
         <v>60</v>
@@ -6271,7 +6271,7 @@
         <v>1.875</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F136" s="3" t="s">
         <v>59</v>
@@ -6345,7 +6345,7 @@
         <v>2.5</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>59</v>
+        <v>229</v>
       </c>
       <c r="F138" s="3" t="s">
         <v>59</v>
@@ -6382,7 +6382,7 @@
         <v>2.5</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>229</v>
+        <v>59</v>
       </c>
       <c r="F139" s="3" t="s">
         <v>229</v>
@@ -9310,7 +9310,7 @@
         <v>1.6875</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>68</v>
+        <v>279</v>
       </c>
       <c r="F246" s="3" t="s">
         <v>68</v>
@@ -9341,7 +9341,7 @@
         <v>1.6875</v>
       </c>
       <c r="E247" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F247" s="3" t="s">
         <v>280</v>
@@ -9372,7 +9372,7 @@
         <v>1.6875</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>60</v>
+        <v>279</v>
       </c>
       <c r="F248" s="3" t="s">
         <v>60</v>
@@ -9403,7 +9403,7 @@
         <v>1.6875</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>242</v>
+        <v>279</v>
       </c>
       <c r="F249" s="3" t="s">
         <v>242</v>
@@ -10966,7 +10966,7 @@
         <v>1.6875</v>
       </c>
       <c r="E301" s="3" t="s">
-        <v>280</v>
+        <v>68</v>
       </c>
       <c r="F301" s="3" t="s">
         <v>280</v>
